--- a/linksupdated.xlsx
+++ b/linksupdated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1192">
   <si>
     <t>Links</t>
   </si>
@@ -265,42 +265,66 @@
     <t>http://www.abcbirds.org/newsandreports/releases/110414.html</t>
   </si>
   <si>
+    <t>NOT ON NEW SITE</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/101019.html</t>
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/releases/140822.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Leading-National-Bird-Group-Challenges-Army-Corps-Plan-to-Kill-16000-Birds</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/111122.html</t>
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/releases/140320.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Top-Ten-Ways-to-Help-Springs-Migrating-Birds</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/stories/110124.html</t>
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/releases/130117a.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Cerulean-Warbler-to-Benefit-from-Acquisition-of-Key-Colombian-Habitat</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/111115.html</t>
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/releases/120905.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Colombia-Mega-Dam-Will-Destroy-Habitat-for-Threatened-Macaw-and-Newly-Discovered-Wren</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/131122.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/First-Prosecution-of-Wind-Company-for-Killing-Birds</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/120202.html</t>
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/stories/120705.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/New-Study-May-Point-to-Rare-Hawaiian-Birds-Developing-Immunity-to-Deadly-Diseases</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/080918.html</t>
   </si>
   <si>
+    <t>no-wayback-machine</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/141218.html</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t>http://www.abcbirds.org/newsandreports/releases/150305a.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Largest-City-in-Northern-California-to-Adopt-Bird-Friendly-Building-Guidelines</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/110516.html</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t>http://www.abcbirds.org/newsandreports/releases/140102.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Protected-Habitat-Doubles-for-Magnificent-and-Endangered-Blue-throated-Macaw</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/110121.html</t>
   </si>
   <si>
@@ -358,6 +388,9 @@
     <t>http://www.abcbirds.org/newsandreports/releases/130626.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Minnesota-and-Oakland-Calif-Adopt-Bird-Friendly-Building-Requirements</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/110224.html</t>
   </si>
   <si>
@@ -388,6 +421,9 @@
     <t>http://www.abcbirds.org/newsandreports/releases/130912.html</t>
   </si>
   <si>
+    <t>https://abcbirds.org/Fall-Brings-Sudden-and-Violent-Death-for-Millions-of-Migrating-Birds</t>
+  </si>
+  <si>
     <t>http://www.abcbirds.org/newsandreports/releases/110314.html</t>
   </si>
   <si>
@@ -401,6 +437,9 @@
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/releases/130823.html</t>
+  </si>
+  <si>
+    <t>https://abcbirds.org/Journal-Article-Addresses-Feral-Cat-Colony-Programs-Cites-Rabies-and-Disease-Risks</t>
   </si>
   <si>
     <t>http://www.abcbirds.org/newsandreports/releases/150114.html</t>
@@ -4741,428 +4780,545 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
+      <c r="D75" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
         <v>83</v>
-      </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
       <c r="C113" t="s">
-        <v>121</v>
+        <v>132</v>
+      </c>
+      <c r="D113" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -5170,76 +5326,97 @@
       <c r="C114" t="s">
         <v>51</v>
       </c>
+      <c r="D114" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -5250,7 +5427,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -5261,7 +5438,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -5272,7 +5449,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -5283,7 +5460,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -5294,7 +5471,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -5305,7 +5482,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -5316,7 +5493,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -5327,7 +5504,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -5338,18 +5515,18 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -5360,7 +5537,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -5371,7 +5548,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -5382,7 +5559,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -5393,7 +5570,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -5404,7 +5581,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -5415,7 +5592,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -5426,7 +5603,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -5437,7 +5614,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -5448,7 +5625,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -5459,7 +5636,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -5470,7 +5647,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -5481,7 +5658,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -5492,7 +5669,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -5503,7 +5680,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -5514,7 +5691,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -5525,7 +5702,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -5536,7 +5713,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -5547,7 +5724,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -5558,7 +5735,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -5569,7 +5746,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -5580,7 +5757,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -5591,7 +5768,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -5602,7 +5779,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -5613,7 +5790,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -5624,7 +5801,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
         <v>5</v>
@@ -5635,7 +5812,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
         <v>5</v>
@@ -5646,7 +5823,7 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
         <v>5</v>
@@ -5657,7 +5834,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
         <v>5</v>
@@ -5668,7 +5845,7 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
@@ -5679,7 +5856,7 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
         <v>5</v>
@@ -5690,7 +5867,7 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
@@ -5701,7 +5878,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -5712,7 +5889,7 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B164" t="s">
         <v>5</v>
@@ -5723,7 +5900,7 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B165" t="s">
         <v>5</v>
@@ -5734,7 +5911,7 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B166" t="s">
         <v>5</v>
@@ -5745,7 +5922,7 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="B167" t="s">
         <v>5</v>
@@ -5756,7 +5933,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B168" t="s">
         <v>5</v>
@@ -5767,7 +5944,7 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B169" t="s">
         <v>5</v>
@@ -5778,7 +5955,7 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="B170" t="s">
         <v>5</v>
@@ -5789,7 +5966,7 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B171" t="s">
         <v>5</v>
@@ -5800,7 +5977,7 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -5811,7 +5988,7 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B173" t="s">
         <v>5</v>
@@ -5822,7 +5999,7 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B174" t="s">
         <v>5</v>
@@ -5833,7 +6010,7 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B175" t="s">
         <v>5</v>
@@ -5844,7 +6021,7 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
@@ -5855,7 +6032,7 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B177" t="s">
         <v>5</v>
@@ -5866,7 +6043,7 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B178" t="s">
         <v>5</v>
@@ -5877,7 +6054,7 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -5888,7 +6065,7 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="B180" t="s">
         <v>5</v>
@@ -5899,7 +6076,7 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B181" t="s">
         <v>5</v>
@@ -5910,7 +6087,7 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -5921,7 +6098,7 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B183" t="s">
         <v>5</v>
@@ -5932,7 +6109,7 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="B184" t="s">
         <v>5</v>
@@ -5943,7 +6120,7 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B185" t="s">
         <v>5</v>
@@ -5954,7 +6131,7 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B186" t="s">
         <v>5</v>
@@ -5965,7 +6142,7 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B187" t="s">
         <v>5</v>
@@ -5976,7 +6153,7 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B188" t="s">
         <v>5</v>
@@ -5987,7 +6164,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B189" t="s">
         <v>5</v>
@@ -5998,7 +6175,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B190" t="s">
         <v>5</v>
@@ -6009,7 +6186,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
@@ -6020,7 +6197,7 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -6031,7 +6208,7 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B193" t="s">
         <v>5</v>
@@ -6042,7 +6219,7 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -6053,7 +6230,7 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B195" t="s">
         <v>5</v>
@@ -6064,7 +6241,7 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B196" t="s">
         <v>5</v>
@@ -6075,7 +6252,7 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B197" t="s">
         <v>5</v>
@@ -6086,7 +6263,7 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B198" t="s">
         <v>5</v>
@@ -6097,7 +6274,7 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B199" t="s">
         <v>5</v>
@@ -6108,7 +6285,7 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
         <v>5</v>
@@ -6119,7 +6296,7 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="B201" t="s">
         <v>5</v>
@@ -6130,7 +6307,7 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B202" t="s">
         <v>5</v>
@@ -6141,7 +6318,7 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B203" t="s">
         <v>5</v>
@@ -6152,7 +6329,7 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B204" t="s">
         <v>5</v>
@@ -6163,7 +6340,7 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="B205" t="s">
         <v>5</v>
@@ -6174,7 +6351,7 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -6185,7 +6362,7 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -6196,7 +6373,7 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -6207,7 +6384,7 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -6218,7 +6395,7 @@
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -6229,7 +6406,7 @@
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -6240,7 +6417,7 @@
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -6251,18 +6428,18 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="B214" t="s">
         <v>5</v>
@@ -6273,7 +6450,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B215" t="s">
         <v>5</v>
@@ -6284,7 +6461,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B216" t="s">
         <v>5</v>
@@ -6295,7 +6472,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="B217" t="s">
         <v>5</v>
@@ -6306,7 +6483,7 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B218" t="s">
         <v>5</v>
@@ -6317,7 +6494,7 @@
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B219" t="s">
         <v>5</v>
@@ -6328,7 +6505,7 @@
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="B220" t="s">
         <v>5</v>
@@ -6339,7 +6516,7 @@
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
@@ -6350,7 +6527,7 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B222" t="s">
         <v>5</v>
@@ -6361,7 +6538,7 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -6372,7 +6549,7 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
@@ -6383,7 +6560,7 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B225" t="s">
         <v>5</v>
@@ -6394,7 +6571,7 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B226" t="s">
         <v>5</v>
@@ -6405,7 +6582,7 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="B227" t="s">
         <v>5</v>
@@ -6416,7 +6593,7 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B228" t="s">
         <v>5</v>
@@ -6427,7 +6604,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B229" t="s">
         <v>5</v>
@@ -6438,7 +6615,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="B230" t="s">
         <v>5</v>
@@ -6449,7 +6626,7 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B231" t="s">
         <v>5</v>
@@ -6460,18 +6637,18 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
       <c r="C232" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B233" t="s">
         <v>5</v>
@@ -6482,7 +6659,7 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B234" t="s">
         <v>5</v>
@@ -6493,7 +6670,7 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
@@ -6504,7 +6681,7 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B236" t="s">
         <v>5</v>
@@ -6515,7 +6692,7 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -6526,7 +6703,7 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B238" t="s">
         <v>5</v>
@@ -6537,7 +6714,7 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B239" t="s">
         <v>5</v>
@@ -6548,7 +6725,7 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B240" t="s">
         <v>5</v>
@@ -6559,7 +6736,7 @@
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B241" t="s">
         <v>5</v>
@@ -6570,7 +6747,7 @@
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B242" t="s">
         <v>5</v>
@@ -6581,7 +6758,7 @@
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -6592,7 +6769,7 @@
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B244" t="s">
         <v>5</v>
@@ -6603,7 +6780,7 @@
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B245" t="s">
         <v>5</v>
@@ -6614,7 +6791,7 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B246" t="s">
         <v>5</v>
@@ -6625,7 +6802,7 @@
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
         <v>5</v>
@@ -6636,7 +6813,7 @@
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B248" t="s">
         <v>5</v>
@@ -6647,7 +6824,7 @@
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B249" t="s">
         <v>5</v>
@@ -6658,7 +6835,7 @@
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B250" t="s">
         <v>5</v>
@@ -6669,7 +6846,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B251" t="s">
         <v>5</v>
@@ -6680,7 +6857,7 @@
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B252" t="s">
         <v>5</v>
@@ -6691,7 +6868,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B253" t="s">
         <v>5</v>
@@ -6702,7 +6879,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B254" t="s">
         <v>5</v>
@@ -6713,7 +6890,7 @@
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B255" t="s">
         <v>5</v>
@@ -6724,7 +6901,7 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B256" t="s">
         <v>5</v>
@@ -6735,7 +6912,7 @@
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B257" t="s">
         <v>5</v>
@@ -6746,7 +6923,7 @@
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B258" t="s">
         <v>5</v>
@@ -6757,7 +6934,7 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -6768,7 +6945,7 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B260" t="s">
         <v>5</v>
@@ -6779,7 +6956,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B261" t="s">
         <v>5</v>
@@ -6790,7 +6967,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B262" t="s">
         <v>5</v>
@@ -6801,7 +6978,7 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B263" t="s">
         <v>5</v>
@@ -6812,7 +6989,7 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B264" t="s">
         <v>5</v>
@@ -6823,7 +7000,7 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="B265" t="s">
         <v>5</v>
@@ -6834,7 +7011,7 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B266" t="s">
         <v>5</v>
@@ -6845,7 +7022,7 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B267" t="s">
         <v>5</v>
@@ -6856,7 +7033,7 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B268" t="s">
         <v>5</v>
@@ -6867,7 +7044,7 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B269" t="s">
         <v>5</v>
@@ -6878,7 +7055,7 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B270" t="s">
         <v>5</v>
@@ -6889,7 +7066,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B271" t="s">
         <v>5</v>
@@ -6900,7 +7077,7 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B272" t="s">
         <v>5</v>
@@ -6911,7 +7088,7 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
@@ -6922,7 +7099,7 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="B274" t="s">
         <v>5</v>
@@ -6933,7 +7110,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B275" t="s">
         <v>5</v>
@@ -6944,7 +7121,7 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
@@ -6955,7 +7132,7 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B277" t="s">
         <v>5</v>
@@ -6966,7 +7143,7 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B278" t="s">
         <v>5</v>
@@ -6977,7 +7154,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="B279" t="s">
         <v>5</v>
@@ -6988,7 +7165,7 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
@@ -6999,7 +7176,7 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B281" t="s">
         <v>5</v>
@@ -7010,7 +7187,7 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="B282" t="s">
         <v>5</v>
@@ -7021,7 +7198,7 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="B283" t="s">
         <v>5</v>
@@ -7032,7 +7209,7 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B284" t="s">
         <v>5</v>
@@ -7043,7 +7220,7 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -7054,7 +7231,7 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B286" t="s">
         <v>5</v>
@@ -7065,7 +7242,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B287" t="s">
         <v>5</v>
@@ -7076,7 +7253,7 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B288" t="s">
         <v>5</v>
@@ -7087,7 +7264,7 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="B289" t="s">
         <v>5</v>
@@ -7098,7 +7275,7 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B290" t="s">
         <v>5</v>
@@ -7109,7 +7286,7 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B291" t="s">
         <v>5</v>
@@ -7120,7 +7297,7 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B292" t="s">
         <v>5</v>
@@ -7131,7 +7308,7 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B293" t="s">
         <v>5</v>
@@ -7142,7 +7319,7 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B294" t="s">
         <v>5</v>
@@ -7153,7 +7330,7 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B295" t="s">
         <v>5</v>
@@ -7164,7 +7341,7 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B296" t="s">
         <v>5</v>
@@ -7175,7 +7352,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B297" t="s">
         <v>5</v>
@@ -7186,7 +7363,7 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="B298" t="s">
         <v>5</v>
@@ -7197,7 +7374,7 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B299" t="s">
         <v>5</v>
@@ -7208,7 +7385,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B300" t="s">
         <v>5</v>
@@ -7219,7 +7396,7 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B301" t="s">
         <v>5</v>
@@ -7230,7 +7407,7 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B302" t="s">
         <v>35</v>
@@ -7238,7 +7415,7 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B303" t="s">
         <v>5</v>
@@ -7249,7 +7426,7 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B304" t="s">
         <v>35</v>
@@ -7257,7 +7434,7 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B305" t="s">
         <v>5</v>
@@ -7268,7 +7445,7 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B306" t="s">
         <v>5</v>
@@ -7279,7 +7456,7 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B307" t="s">
         <v>5</v>
@@ -7290,7 +7467,7 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B308" t="s">
         <v>5</v>
@@ -7301,7 +7478,7 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B309" t="s">
         <v>5</v>
@@ -7312,7 +7489,7 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B310" t="s">
         <v>5</v>
@@ -7323,18 +7500,18 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B311" t="s">
         <v>5</v>
       </c>
       <c r="C311" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B312" t="s">
         <v>5</v>
@@ -7345,7 +7522,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B313" t="s">
         <v>5</v>
@@ -7356,18 +7533,18 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B314" t="s">
         <v>5</v>
       </c>
       <c r="C314" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B315" t="s">
         <v>5</v>
@@ -7378,7 +7555,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B316" t="s">
         <v>5</v>
@@ -7389,7 +7566,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B317" t="s">
         <v>5</v>
@@ -7400,7 +7577,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B318" t="s">
         <v>5</v>
@@ -7411,7 +7588,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B319" t="s">
         <v>5</v>
@@ -7422,7 +7599,7 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B320" t="s">
         <v>5</v>
@@ -7433,7 +7610,7 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B321" t="s">
         <v>5</v>
@@ -7444,7 +7621,7 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B322" t="s">
         <v>5</v>
@@ -7455,7 +7632,7 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B323" t="s">
         <v>5</v>
@@ -7466,18 +7643,18 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B324" t="s">
         <v>5</v>
       </c>
       <c r="C324" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B325" t="s">
         <v>5</v>
@@ -7488,7 +7665,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B326" t="s">
         <v>5</v>
@@ -7499,7 +7676,7 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B327" t="s">
         <v>5</v>
@@ -7510,7 +7687,7 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B328" t="s">
         <v>5</v>
@@ -7521,7 +7698,7 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B329" t="s">
         <v>5</v>
@@ -7532,7 +7709,7 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B330" t="s">
         <v>5</v>
@@ -7543,7 +7720,7 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B331" t="s">
         <v>5</v>
@@ -7554,7 +7731,7 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B332" t="s">
         <v>5</v>
@@ -7565,7 +7742,7 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B333" t="s">
         <v>5</v>
@@ -7576,7 +7753,7 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B334" t="s">
         <v>5</v>
@@ -7587,7 +7764,7 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B335" t="s">
         <v>5</v>
@@ -7598,7 +7775,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B336" t="s">
         <v>5</v>
@@ -7609,7 +7786,7 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B337" t="s">
         <v>5</v>
@@ -7620,7 +7797,7 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B338" t="s">
         <v>5</v>
@@ -7631,7 +7808,7 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="B339" t="s">
         <v>5</v>
@@ -7642,7 +7819,7 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B340" t="s">
         <v>5</v>
@@ -7653,7 +7830,7 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -7664,18 +7841,18 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B342" t="s">
         <v>5</v>
       </c>
       <c r="C342" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B343" t="s">
         <v>5</v>
@@ -7686,7 +7863,7 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B344" t="s">
         <v>5</v>
@@ -7697,7 +7874,7 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B345" t="s">
         <v>5</v>
@@ -7708,7 +7885,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B346" t="s">
         <v>5</v>
@@ -7719,7 +7896,7 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B347" t="s">
         <v>5</v>
@@ -7730,7 +7907,7 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B348" t="s">
         <v>5</v>
@@ -7741,7 +7918,7 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B349" t="s">
         <v>5</v>
@@ -7752,7 +7929,7 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B350" t="s">
         <v>5</v>
@@ -7763,7 +7940,7 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B351" t="s">
         <v>5</v>
@@ -7774,7 +7951,7 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B352" t="s">
         <v>5</v>
@@ -7785,7 +7962,7 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -7796,18 +7973,18 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B354" t="s">
         <v>5</v>
       </c>
       <c r="C354" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B355" t="s">
         <v>5</v>
@@ -7818,7 +7995,7 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B356" t="s">
         <v>5</v>
@@ -7829,7 +8006,7 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B357" t="s">
         <v>5</v>
@@ -7840,7 +8017,7 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="B358" t="s">
         <v>5</v>
@@ -7851,7 +8028,7 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B359" t="s">
         <v>5</v>
@@ -7862,7 +8039,7 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B360" t="s">
         <v>5</v>
@@ -7873,7 +8050,7 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="B361" t="s">
         <v>5</v>
@@ -7884,7 +8061,7 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B362" t="s">
         <v>5</v>
@@ -7895,7 +8072,7 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B363" t="s">
         <v>5</v>
@@ -7906,7 +8083,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B364" t="s">
         <v>5</v>
@@ -7917,7 +8094,7 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B365" t="s">
         <v>5</v>
@@ -7928,7 +8105,7 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="B366" t="s">
         <v>5</v>
@@ -7939,7 +8116,7 @@
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B367" t="s">
         <v>5</v>
@@ -7950,7 +8127,7 @@
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B368" t="s">
         <v>5</v>
@@ -7961,29 +8138,29 @@
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B369" t="s">
         <v>5</v>
       </c>
       <c r="C369" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B370" t="s">
         <v>5</v>
       </c>
       <c r="C370" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -7994,7 +8171,7 @@
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="B372" t="s">
         <v>5</v>
@@ -8005,7 +8182,7 @@
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="B373" t="s">
         <v>5</v>
@@ -8016,7 +8193,7 @@
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B374" t="s">
         <v>5</v>
@@ -8027,7 +8204,7 @@
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="B375" t="s">
         <v>5</v>
@@ -8038,7 +8215,7 @@
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B376" t="s">
         <v>5</v>
@@ -8049,7 +8226,7 @@
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B377" t="s">
         <v>5</v>
@@ -8060,7 +8237,7 @@
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B378" t="s">
         <v>5</v>
@@ -8071,7 +8248,7 @@
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B379" t="s">
         <v>5</v>
@@ -8082,7 +8259,7 @@
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B380" t="s">
         <v>5</v>
@@ -8093,7 +8270,7 @@
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B381" t="s">
         <v>5</v>
@@ -8104,7 +8281,7 @@
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B382" t="s">
         <v>5</v>
@@ -8115,7 +8292,7 @@
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="B383" t="s">
         <v>5</v>
@@ -8126,7 +8303,7 @@
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B384" t="s">
         <v>5</v>
@@ -8137,7 +8314,7 @@
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="B385" t="s">
         <v>5</v>
@@ -8148,7 +8325,7 @@
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B386" t="s">
         <v>5</v>
@@ -8159,7 +8336,7 @@
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B387" t="s">
         <v>5</v>
@@ -8170,7 +8347,7 @@
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B388" t="s">
         <v>5</v>
@@ -8181,7 +8358,7 @@
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="B389" t="s">
         <v>5</v>
@@ -8192,7 +8369,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B390" t="s">
         <v>5</v>
@@ -8203,7 +8380,7 @@
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B391" t="s">
         <v>5</v>
@@ -8214,7 +8391,7 @@
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B392" t="s">
         <v>5</v>
@@ -8225,7 +8402,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B393" t="s">
         <v>5</v>
@@ -8236,7 +8413,7 @@
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B394" t="s">
         <v>5</v>
@@ -8247,7 +8424,7 @@
     </row>
     <row r="395" spans="1:4">
       <c r="A395" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B395" t="s">
         <v>5</v>
@@ -8258,7 +8435,7 @@
     </row>
     <row r="396" spans="1:4">
       <c r="A396" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="B396" t="s">
         <v>5</v>
@@ -8269,7 +8446,7 @@
     </row>
     <row r="397" spans="1:4">
       <c r="A397" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B397" t="s">
         <v>5</v>
@@ -8280,7 +8457,7 @@
     </row>
     <row r="398" spans="1:4">
       <c r="A398" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B398" t="s">
         <v>5</v>
@@ -8291,7 +8468,7 @@
     </row>
     <row r="399" spans="1:4">
       <c r="A399" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="B399" t="s">
         <v>5</v>
@@ -8302,7 +8479,7 @@
     </row>
     <row r="400" spans="1:4">
       <c r="A400" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B400" t="s">
         <v>5</v>
@@ -8313,7 +8490,7 @@
     </row>
     <row r="401" spans="1:4">
       <c r="A401" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B401" t="s">
         <v>5</v>
@@ -8324,7 +8501,7 @@
     </row>
     <row r="402" spans="1:4">
       <c r="A402" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="B402" t="s">
         <v>5</v>
@@ -8335,7 +8512,7 @@
     </row>
     <row r="403" spans="1:4">
       <c r="A403" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -8346,7 +8523,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B404" t="s">
         <v>5</v>
@@ -8357,7 +8534,7 @@
     </row>
     <row r="405" spans="1:4">
       <c r="A405" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B405" t="s">
         <v>5</v>
@@ -8368,7 +8545,7 @@
     </row>
     <row r="406" spans="1:4">
       <c r="A406" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B406" t="s">
         <v>5</v>
@@ -8379,7 +8556,7 @@
     </row>
     <row r="407" spans="1:4">
       <c r="A407" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="B407" t="s">
         <v>5</v>
@@ -8390,7 +8567,7 @@
     </row>
     <row r="408" spans="1:4">
       <c r="A408" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B408" t="s">
         <v>5</v>
@@ -8401,18 +8578,18 @@
     </row>
     <row r="409" spans="1:4">
       <c r="A409" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B409" t="s">
         <v>5</v>
       </c>
       <c r="C409" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B410" t="s">
         <v>5</v>
@@ -8423,7 +8600,7 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B411" t="s">
         <v>5</v>
@@ -8434,7 +8611,7 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="B412" t="s">
         <v>5</v>
@@ -8445,7 +8622,7 @@
     </row>
     <row r="413" spans="1:4">
       <c r="A413" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="B413" t="s">
         <v>5</v>
@@ -8456,7 +8633,7 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="B414" t="s">
         <v>5</v>
@@ -8467,7 +8644,7 @@
     </row>
     <row r="415" spans="1:4">
       <c r="A415" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="B415" t="s">
         <v>5</v>
@@ -8478,7 +8655,7 @@
     </row>
     <row r="416" spans="1:4">
       <c r="A416" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B416" t="s">
         <v>5</v>
@@ -8489,7 +8666,7 @@
     </row>
     <row r="417" spans="1:4">
       <c r="A417" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B417" t="s">
         <v>5</v>
@@ -8500,7 +8677,7 @@
     </row>
     <row r="418" spans="1:4">
       <c r="A418" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B418" t="s">
         <v>5</v>
@@ -8511,7 +8688,7 @@
     </row>
     <row r="419" spans="1:4">
       <c r="A419" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="B419" t="s">
         <v>5</v>
@@ -8522,7 +8699,7 @@
     </row>
     <row r="420" spans="1:4">
       <c r="A420" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="B420" t="s">
         <v>5</v>
@@ -8533,7 +8710,7 @@
     </row>
     <row r="421" spans="1:4">
       <c r="A421" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="B421" t="s">
         <v>5</v>
@@ -8544,7 +8721,7 @@
     </row>
     <row r="422" spans="1:4">
       <c r="A422" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B422" t="s">
         <v>5</v>
@@ -8555,7 +8732,7 @@
     </row>
     <row r="423" spans="1:4">
       <c r="A423" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B423" t="s">
         <v>5</v>
@@ -8566,7 +8743,7 @@
     </row>
     <row r="424" spans="1:4">
       <c r="A424" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B424" t="s">
         <v>5</v>
@@ -8577,7 +8754,7 @@
     </row>
     <row r="425" spans="1:4">
       <c r="A425" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B425" t="s">
         <v>5</v>
@@ -8588,18 +8765,18 @@
     </row>
     <row r="426" spans="1:4">
       <c r="A426" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B426" t="s">
         <v>5</v>
       </c>
       <c r="C426" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="B427" t="s">
         <v>5</v>
@@ -8610,7 +8787,7 @@
     </row>
     <row r="428" spans="1:4">
       <c r="A428" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B428" t="s">
         <v>5</v>
@@ -8621,7 +8798,7 @@
     </row>
     <row r="429" spans="1:4">
       <c r="A429" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B429" t="s">
         <v>5</v>
@@ -8632,7 +8809,7 @@
     </row>
     <row r="430" spans="1:4">
       <c r="A430" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B430" t="s">
         <v>5</v>
@@ -8643,7 +8820,7 @@
     </row>
     <row r="431" spans="1:4">
       <c r="A431" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B431" t="s">
         <v>5</v>
@@ -8654,7 +8831,7 @@
     </row>
     <row r="432" spans="1:4">
       <c r="A432" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="B432" t="s">
         <v>5</v>
@@ -8665,29 +8842,29 @@
     </row>
     <row r="433" spans="1:4">
       <c r="A433" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="B433" t="s">
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B434" t="s">
         <v>5</v>
       </c>
       <c r="C434" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B435" t="s">
         <v>5</v>
@@ -8698,40 +8875,40 @@
     </row>
     <row r="436" spans="1:4">
       <c r="A436" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="B436" t="s">
         <v>5</v>
       </c>
       <c r="C436" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="B437" t="s">
         <v>5</v>
       </c>
       <c r="C437" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B438" t="s">
         <v>5</v>
       </c>
       <c r="C438" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B439" t="s">
         <v>5</v>
@@ -8742,7 +8919,7 @@
     </row>
     <row r="440" spans="1:4">
       <c r="A440" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="B440" t="s">
         <v>5</v>
@@ -8753,7 +8930,7 @@
     </row>
     <row r="441" spans="1:4">
       <c r="A441" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B441" t="s">
         <v>5</v>
@@ -8764,18 +8941,18 @@
     </row>
     <row r="442" spans="1:4">
       <c r="A442" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="B442" t="s">
         <v>5</v>
       </c>
       <c r="C442" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B443" t="s">
         <v>5</v>
@@ -8786,7 +8963,7 @@
     </row>
     <row r="444" spans="1:4">
       <c r="A444" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B444" t="s">
         <v>5</v>
@@ -8797,7 +8974,7 @@
     </row>
     <row r="445" spans="1:4">
       <c r="A445" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B445" t="s">
         <v>5</v>
@@ -8808,7 +8985,7 @@
     </row>
     <row r="446" spans="1:4">
       <c r="A446" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B446" t="s">
         <v>5</v>
@@ -8819,7 +8996,7 @@
     </row>
     <row r="447" spans="1:4">
       <c r="A447" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="B447" t="s">
         <v>5</v>
@@ -8830,7 +9007,7 @@
     </row>
     <row r="448" spans="1:4">
       <c r="A448" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B448" t="s">
         <v>5</v>
@@ -8841,7 +9018,7 @@
     </row>
     <row r="449" spans="1:4">
       <c r="A449" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B449" t="s">
         <v>5</v>
@@ -8852,7 +9029,7 @@
     </row>
     <row r="450" spans="1:4">
       <c r="A450" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B450" t="s">
         <v>35</v>
@@ -8860,7 +9037,7 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B451" t="s">
         <v>5</v>
@@ -8871,7 +9048,7 @@
     </row>
     <row r="452" spans="1:4">
       <c r="A452" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="B452" t="s">
         <v>5</v>
@@ -8882,7 +9059,7 @@
     </row>
     <row r="453" spans="1:4">
       <c r="A453" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B453" t="s">
         <v>5</v>
@@ -8893,7 +9070,7 @@
     </row>
     <row r="454" spans="1:4">
       <c r="A454" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B454" t="s">
         <v>5</v>
@@ -8904,7 +9081,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B455" t="s">
         <v>5</v>
@@ -8915,7 +9092,7 @@
     </row>
     <row r="456" spans="1:4">
       <c r="A456" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B456" t="s">
         <v>5</v>
@@ -8926,7 +9103,7 @@
     </row>
     <row r="457" spans="1:4">
       <c r="A457" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B457" t="s">
         <v>5</v>
@@ -8937,7 +9114,7 @@
     </row>
     <row r="458" spans="1:4">
       <c r="A458" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B458" t="s">
         <v>5</v>
@@ -8948,7 +9125,7 @@
     </row>
     <row r="459" spans="1:4">
       <c r="A459" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B459" t="s">
         <v>35</v>
@@ -8956,7 +9133,7 @@
     </row>
     <row r="460" spans="1:4">
       <c r="A460" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="B460" t="s">
         <v>5</v>
@@ -8967,7 +9144,7 @@
     </row>
     <row r="461" spans="1:4">
       <c r="A461" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B461" t="s">
         <v>5</v>
@@ -8978,7 +9155,7 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="B462" t="s">
         <v>5</v>
@@ -8989,7 +9166,7 @@
     </row>
     <row r="463" spans="1:4">
       <c r="A463" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B463" t="s">
         <v>5</v>
@@ -9000,7 +9177,7 @@
     </row>
     <row r="464" spans="1:4">
       <c r="A464" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B464" t="s">
         <v>5</v>
@@ -9011,7 +9188,7 @@
     </row>
     <row r="465" spans="1:4">
       <c r="A465" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="B465" t="s">
         <v>5</v>
@@ -9022,7 +9199,7 @@
     </row>
     <row r="466" spans="1:4">
       <c r="A466" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="B466" t="s">
         <v>5</v>
@@ -9033,7 +9210,7 @@
     </row>
     <row r="467" spans="1:4">
       <c r="A467" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="B467" t="s">
         <v>5</v>
@@ -9044,7 +9221,7 @@
     </row>
     <row r="468" spans="1:4">
       <c r="A468" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="B468" t="s">
         <v>5</v>
@@ -9055,7 +9232,7 @@
     </row>
     <row r="469" spans="1:4">
       <c r="A469" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B469" t="s">
         <v>35</v>
@@ -9063,7 +9240,7 @@
     </row>
     <row r="470" spans="1:4">
       <c r="A470" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="B470" t="s">
         <v>5</v>
@@ -9074,7 +9251,7 @@
     </row>
     <row r="471" spans="1:4">
       <c r="A471" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B471" t="s">
         <v>5</v>
@@ -9085,7 +9262,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B472" t="s">
         <v>5</v>
@@ -9096,7 +9273,7 @@
     </row>
     <row r="473" spans="1:4">
       <c r="A473" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B473" t="s">
         <v>35</v>
@@ -9104,7 +9281,7 @@
     </row>
     <row r="474" spans="1:4">
       <c r="A474" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="B474" t="s">
         <v>5</v>
@@ -9115,7 +9292,7 @@
     </row>
     <row r="475" spans="1:4">
       <c r="A475" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B475" t="s">
         <v>5</v>
@@ -9126,7 +9303,7 @@
     </row>
     <row r="476" spans="1:4">
       <c r="A476" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B476" t="s">
         <v>5</v>
@@ -9137,18 +9314,18 @@
     </row>
     <row r="477" spans="1:4">
       <c r="A477" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="B477" t="s">
         <v>5</v>
       </c>
       <c r="C477" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="B478" t="s">
         <v>5</v>
@@ -9159,7 +9336,7 @@
     </row>
     <row r="479" spans="1:4">
       <c r="A479" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="B479" t="s">
         <v>5</v>
@@ -9170,7 +9347,7 @@
     </row>
     <row r="480" spans="1:4">
       <c r="A480" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B480" t="s">
         <v>5</v>
@@ -9181,7 +9358,7 @@
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="B481" t="s">
         <v>5</v>
@@ -9192,7 +9369,7 @@
     </row>
     <row r="482" spans="1:4">
       <c r="A482" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="B482" t="s">
         <v>5</v>
@@ -9203,18 +9380,18 @@
     </row>
     <row r="483" spans="1:4">
       <c r="A483" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B483" t="s">
         <v>5</v>
       </c>
       <c r="C483" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="B484" t="s">
         <v>5</v>
@@ -9225,7 +9402,7 @@
     </row>
     <row r="485" spans="1:4">
       <c r="A485" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B485" t="s">
         <v>5</v>
@@ -9236,7 +9413,7 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="B486" t="s">
         <v>35</v>
@@ -9244,7 +9421,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="B487" t="s">
         <v>5</v>
@@ -9255,7 +9432,7 @@
     </row>
     <row r="488" spans="1:4">
       <c r="A488" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B488" t="s">
         <v>5</v>
@@ -9266,7 +9443,7 @@
     </row>
     <row r="489" spans="1:4">
       <c r="A489" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="B489" t="s">
         <v>5</v>
@@ -9277,7 +9454,7 @@
     </row>
     <row r="490" spans="1:4">
       <c r="A490" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B490" t="s">
         <v>5</v>
@@ -9288,7 +9465,7 @@
     </row>
     <row r="491" spans="1:4">
       <c r="A491" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="B491" t="s">
         <v>5</v>
@@ -9299,7 +9476,7 @@
     </row>
     <row r="492" spans="1:4">
       <c r="A492" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="B492" t="s">
         <v>5</v>
@@ -9310,7 +9487,7 @@
     </row>
     <row r="493" spans="1:4">
       <c r="A493" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="B493" t="s">
         <v>5</v>
@@ -9321,18 +9498,18 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="B494" t="s">
         <v>5</v>
       </c>
       <c r="C494" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="B495" t="s">
         <v>5</v>
@@ -9343,7 +9520,7 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B496" t="s">
         <v>5</v>
@@ -9354,7 +9531,7 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B497" t="s">
         <v>5</v>
@@ -9365,7 +9542,7 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="B498" t="s">
         <v>5</v>
@@ -9376,7 +9553,7 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B499" t="s">
         <v>5</v>
@@ -9387,7 +9564,7 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="B500" t="s">
         <v>5</v>
@@ -9398,7 +9575,7 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="B501" t="s">
         <v>5</v>
@@ -9409,7 +9586,7 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B502" t="s">
         <v>5</v>
@@ -9420,7 +9597,7 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B503" t="s">
         <v>5</v>
@@ -9431,7 +9608,7 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="B504" t="s">
         <v>5</v>
@@ -9442,7 +9619,7 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B505" t="s">
         <v>5</v>
@@ -9453,7 +9630,7 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="B506" t="s">
         <v>5</v>
@@ -9464,7 +9641,7 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="B507" t="s">
         <v>5</v>
@@ -9475,7 +9652,7 @@
     </row>
     <row r="508" spans="1:4">
       <c r="A508" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B508" t="s">
         <v>5</v>
@@ -9486,7 +9663,7 @@
     </row>
     <row r="509" spans="1:4">
       <c r="A509" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="B509" t="s">
         <v>5</v>
@@ -9497,7 +9674,7 @@
     </row>
     <row r="510" spans="1:4">
       <c r="A510" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B510" t="s">
         <v>5</v>
@@ -9508,7 +9685,7 @@
     </row>
     <row r="511" spans="1:4">
       <c r="A511" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B511" t="s">
         <v>5</v>
@@ -9519,7 +9696,7 @@
     </row>
     <row r="512" spans="1:4">
       <c r="A512" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B512" t="s">
         <v>5</v>
@@ -9530,7 +9707,7 @@
     </row>
     <row r="513" spans="1:4">
       <c r="A513" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="B513" t="s">
         <v>5</v>
@@ -9541,7 +9718,7 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B514" t="s">
         <v>5</v>
@@ -9552,7 +9729,7 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="B515" t="s">
         <v>5</v>
@@ -9563,7 +9740,7 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="B516" t="s">
         <v>5</v>
@@ -9574,7 +9751,7 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B517" t="s">
         <v>5</v>
@@ -9585,7 +9762,7 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B518" t="s">
         <v>5</v>
@@ -9596,7 +9773,7 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="B519" t="s">
         <v>5</v>
@@ -9607,7 +9784,7 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="B520" t="s">
         <v>5</v>
@@ -9618,7 +9795,7 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="B521" t="s">
         <v>5</v>
@@ -9629,7 +9806,7 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="B522" t="s">
         <v>5</v>
@@ -9640,7 +9817,7 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B523" t="s">
         <v>5</v>
@@ -9651,7 +9828,7 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="B524" t="s">
         <v>5</v>
@@ -9662,7 +9839,7 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="B525" t="s">
         <v>5</v>
@@ -9673,18 +9850,18 @@
     </row>
     <row r="526" spans="1:4">
       <c r="A526" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B526" t="s">
         <v>5</v>
       </c>
       <c r="C526" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="B527" t="s">
         <v>5</v>
@@ -9695,7 +9872,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="B528" t="s">
         <v>5</v>
@@ -9706,7 +9883,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="B529" t="s">
         <v>5</v>
@@ -9717,7 +9894,7 @@
     </row>
     <row r="530" spans="1:4">
       <c r="A530" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="B530" t="s">
         <v>5</v>
@@ -9728,7 +9905,7 @@
     </row>
     <row r="531" spans="1:4">
       <c r="A531" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B531" t="s">
         <v>5</v>
@@ -9739,7 +9916,7 @@
     </row>
     <row r="532" spans="1:4">
       <c r="A532" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="B532" t="s">
         <v>5</v>
@@ -9750,7 +9927,7 @@
     </row>
     <row r="533" spans="1:4">
       <c r="A533" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="B533" t="s">
         <v>5</v>
@@ -9761,7 +9938,7 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="B534" t="s">
         <v>5</v>
@@ -9772,7 +9949,7 @@
     </row>
     <row r="535" spans="1:4">
       <c r="A535" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B535" t="s">
         <v>5</v>
@@ -9783,7 +9960,7 @@
     </row>
     <row r="536" spans="1:4">
       <c r="A536" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="B536" t="s">
         <v>5</v>
@@ -9794,7 +9971,7 @@
     </row>
     <row r="537" spans="1:4">
       <c r="A537" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="B537" t="s">
         <v>5</v>
@@ -9805,7 +9982,7 @@
     </row>
     <row r="538" spans="1:4">
       <c r="A538" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B538" t="s">
         <v>5</v>
@@ -9816,7 +9993,7 @@
     </row>
     <row r="539" spans="1:4">
       <c r="A539" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B539" t="s">
         <v>5</v>
@@ -9827,18 +10004,18 @@
     </row>
     <row r="540" spans="1:4">
       <c r="A540" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="B540" t="s">
         <v>5</v>
       </c>
       <c r="C540" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="B541" t="s">
         <v>5</v>
@@ -9849,7 +10026,7 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B542" t="s">
         <v>5</v>
@@ -9860,7 +10037,7 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="B543" t="s">
         <v>5</v>
@@ -9871,7 +10048,7 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="B544" t="s">
         <v>5</v>
@@ -9882,7 +10059,7 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="B545" t="s">
         <v>5</v>
@@ -9893,7 +10070,7 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="B546" t="s">
         <v>5</v>
@@ -9904,7 +10081,7 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B547" t="s">
         <v>5</v>
@@ -9915,7 +10092,7 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="B548" t="s">
         <v>5</v>
@@ -9926,7 +10103,7 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B549" t="s">
         <v>35</v>
@@ -9934,7 +10111,7 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="B550" t="s">
         <v>35</v>
@@ -9942,7 +10119,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B551" t="s">
         <v>5</v>
@@ -9953,7 +10130,7 @@
     </row>
     <row r="552" spans="1:4">
       <c r="A552" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="B552" t="s">
         <v>5</v>
@@ -9964,7 +10141,7 @@
     </row>
     <row r="553" spans="1:4">
       <c r="A553" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="B553" t="s">
         <v>35</v>
@@ -9972,7 +10149,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="B554" t="s">
         <v>5</v>
@@ -9983,7 +10160,7 @@
     </row>
     <row r="555" spans="1:4">
       <c r="A555" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="B555" t="s">
         <v>35</v>
@@ -9991,7 +10168,7 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="B556" t="s">
         <v>35</v>
@@ -9999,7 +10176,7 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="B557" t="s">
         <v>35</v>
@@ -10007,7 +10184,7 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="B558" t="s">
         <v>5</v>
@@ -10018,7 +10195,7 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B559" t="s">
         <v>5</v>
@@ -10029,7 +10206,7 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="B560" t="s">
         <v>5</v>
@@ -10040,7 +10217,7 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B561" t="s">
         <v>5</v>
@@ -10051,7 +10228,7 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="B562" t="s">
         <v>5</v>
@@ -10062,7 +10239,7 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B563" t="s">
         <v>5</v>
@@ -10073,18 +10250,18 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="B564" t="s">
         <v>5</v>
       </c>
       <c r="C564" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B565" t="s">
         <v>5</v>
@@ -10095,18 +10272,18 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="B566" t="s">
         <v>5</v>
       </c>
       <c r="C566" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="B567" t="s">
         <v>5</v>
@@ -10117,7 +10294,7 @@
     </row>
     <row r="568" spans="1:4">
       <c r="A568" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="B568" t="s">
         <v>35</v>
@@ -10125,7 +10302,7 @@
     </row>
     <row r="569" spans="1:4">
       <c r="A569" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="B569" t="s">
         <v>5</v>
@@ -10136,7 +10313,7 @@
     </row>
     <row r="570" spans="1:4">
       <c r="A570" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="B570" t="s">
         <v>5</v>
@@ -10147,7 +10324,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B571" t="s">
         <v>5</v>
@@ -10158,7 +10335,7 @@
     </row>
     <row r="572" spans="1:4">
       <c r="A572" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B572" t="s">
         <v>5</v>
@@ -10169,7 +10346,7 @@
     </row>
     <row r="573" spans="1:4">
       <c r="A573" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="B573" t="s">
         <v>5</v>
@@ -10180,7 +10357,7 @@
     </row>
     <row r="574" spans="1:4">
       <c r="A574" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B574" t="s">
         <v>5</v>
@@ -10191,7 +10368,7 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B575" t="s">
         <v>5</v>
@@ -10202,7 +10379,7 @@
     </row>
     <row r="576" spans="1:4">
       <c r="A576" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="B576" t="s">
         <v>5</v>
@@ -10213,18 +10390,18 @@
     </row>
     <row r="577" spans="1:4">
       <c r="A577" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="B577" t="s">
         <v>5</v>
       </c>
       <c r="C577" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="B578" t="s">
         <v>5</v>
@@ -10235,7 +10412,7 @@
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B579" t="s">
         <v>5</v>
@@ -10246,7 +10423,7 @@
     </row>
     <row r="580" spans="1:4">
       <c r="A580" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="B580" t="s">
         <v>5</v>
@@ -10257,7 +10434,7 @@
     </row>
     <row r="581" spans="1:4">
       <c r="A581" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B581" t="s">
         <v>5</v>
@@ -10268,7 +10445,7 @@
     </row>
     <row r="582" spans="1:4">
       <c r="A582" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="B582" t="s">
         <v>5</v>
@@ -10279,7 +10456,7 @@
     </row>
     <row r="583" spans="1:4">
       <c r="A583" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="B583" t="s">
         <v>35</v>
@@ -10287,7 +10464,7 @@
     </row>
     <row r="584" spans="1:4">
       <c r="A584" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B584" t="s">
         <v>5</v>
@@ -10298,7 +10475,7 @@
     </row>
     <row r="585" spans="1:4">
       <c r="A585" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="B585" t="s">
         <v>5</v>
@@ -10309,18 +10486,18 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="B586" t="s">
         <v>5</v>
       </c>
       <c r="C586" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
     </row>
     <row r="587" spans="1:4">
       <c r="A587" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="B587" t="s">
         <v>35</v>
@@ -10328,7 +10505,7 @@
     </row>
     <row r="588" spans="1:4">
       <c r="A588" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B588" t="s">
         <v>35</v>
@@ -10336,7 +10513,7 @@
     </row>
     <row r="589" spans="1:4">
       <c r="A589" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B589" t="s">
         <v>5</v>
@@ -10347,7 +10524,7 @@
     </row>
     <row r="590" spans="1:4">
       <c r="A590" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="B590" t="s">
         <v>5</v>
@@ -10358,18 +10535,18 @@
     </row>
     <row r="591" spans="1:4">
       <c r="A591" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B591" t="s">
         <v>5</v>
       </c>
       <c r="C591" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="592" spans="1:4">
       <c r="A592" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B592" t="s">
         <v>5</v>
@@ -10380,7 +10557,7 @@
     </row>
     <row r="593" spans="1:4">
       <c r="A593" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B593" t="s">
         <v>5</v>
@@ -10391,7 +10568,7 @@
     </row>
     <row r="594" spans="1:4">
       <c r="A594" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="B594" t="s">
         <v>5</v>
@@ -10402,7 +10579,7 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B595" t="s">
         <v>5</v>
@@ -10413,7 +10590,7 @@
     </row>
     <row r="596" spans="1:4">
       <c r="A596" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="B596" t="s">
         <v>5</v>
@@ -10424,18 +10601,18 @@
     </row>
     <row r="597" spans="1:4">
       <c r="A597" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="B597" t="s">
         <v>5</v>
       </c>
       <c r="C597" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="B598" t="s">
         <v>5</v>
@@ -10446,7 +10623,7 @@
     </row>
     <row r="599" spans="1:4">
       <c r="A599" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="B599" t="s">
         <v>35</v>
@@ -10454,7 +10631,7 @@
     </row>
     <row r="600" spans="1:4">
       <c r="A600" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="B600" t="s">
         <v>5</v>
@@ -10465,7 +10642,7 @@
     </row>
     <row r="601" spans="1:4">
       <c r="A601" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="B601" t="s">
         <v>5</v>
@@ -10476,7 +10653,7 @@
     </row>
     <row r="602" spans="1:4">
       <c r="A602" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="B602" t="s">
         <v>5</v>
@@ -10487,7 +10664,7 @@
     </row>
     <row r="603" spans="1:4">
       <c r="A603" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="B603" t="s">
         <v>35</v>
@@ -10495,7 +10672,7 @@
     </row>
     <row r="604" spans="1:4">
       <c r="A604" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="B604" t="s">
         <v>35</v>
@@ -10503,7 +10680,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="B605" t="s">
         <v>5</v>
@@ -10514,18 +10691,18 @@
     </row>
     <row r="606" spans="1:4">
       <c r="A606" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="B606" t="s">
         <v>5</v>
       </c>
       <c r="C606" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="B607" t="s">
         <v>35</v>
@@ -10533,7 +10710,7 @@
     </row>
     <row r="608" spans="1:4">
       <c r="A608" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B608" t="s">
         <v>5</v>
@@ -10544,7 +10721,7 @@
     </row>
     <row r="609" spans="1:4">
       <c r="A609" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="B609" t="s">
         <v>5</v>
@@ -10555,7 +10732,7 @@
     </row>
     <row r="610" spans="1:4">
       <c r="A610" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B610" t="s">
         <v>35</v>
@@ -10563,7 +10740,7 @@
     </row>
     <row r="611" spans="1:4">
       <c r="A611" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="B611" t="s">
         <v>35</v>
@@ -10571,7 +10748,7 @@
     </row>
     <row r="612" spans="1:4">
       <c r="A612" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="B612" t="s">
         <v>5</v>
@@ -10582,7 +10759,7 @@
     </row>
     <row r="613" spans="1:4">
       <c r="A613" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="B613" t="s">
         <v>5</v>
@@ -10593,7 +10770,7 @@
     </row>
     <row r="614" spans="1:4">
       <c r="A614" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="B614" t="s">
         <v>35</v>
@@ -10601,7 +10778,7 @@
     </row>
     <row r="615" spans="1:4">
       <c r="A615" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="B615" t="s">
         <v>5</v>
@@ -10612,7 +10789,7 @@
     </row>
     <row r="616" spans="1:4">
       <c r="A616" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="B616" t="s">
         <v>35</v>
@@ -10620,7 +10797,7 @@
     </row>
     <row r="617" spans="1:4">
       <c r="A617" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="B617" t="s">
         <v>35</v>
@@ -10628,7 +10805,7 @@
     </row>
     <row r="618" spans="1:4">
       <c r="A618" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B618" t="s">
         <v>5</v>
@@ -10639,7 +10816,7 @@
     </row>
     <row r="619" spans="1:4">
       <c r="A619" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="B619" t="s">
         <v>5</v>
@@ -10650,7 +10827,7 @@
     </row>
     <row r="620" spans="1:4">
       <c r="A620" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="B620" t="s">
         <v>5</v>
@@ -10661,7 +10838,7 @@
     </row>
     <row r="621" spans="1:4">
       <c r="A621" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="B621" t="s">
         <v>35</v>
@@ -10669,18 +10846,18 @@
     </row>
     <row r="622" spans="1:4">
       <c r="A622" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="B622" t="s">
         <v>5</v>
       </c>
       <c r="C622" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
     </row>
     <row r="623" spans="1:4">
       <c r="A623" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="B623" t="s">
         <v>35</v>
@@ -10688,7 +10865,7 @@
     </row>
     <row r="624" spans="1:4">
       <c r="A624" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="B624" t="s">
         <v>5</v>
@@ -10699,7 +10876,7 @@
     </row>
     <row r="625" spans="1:4">
       <c r="A625" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="B625" t="s">
         <v>5</v>
@@ -10710,7 +10887,7 @@
     </row>
     <row r="626" spans="1:4">
       <c r="A626" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="B626" t="s">
         <v>5</v>
@@ -10721,7 +10898,7 @@
     </row>
     <row r="627" spans="1:4">
       <c r="A627" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="B627" t="s">
         <v>5</v>
@@ -10732,7 +10909,7 @@
     </row>
     <row r="628" spans="1:4">
       <c r="A628" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B628" t="s">
         <v>5</v>
@@ -10743,7 +10920,7 @@
     </row>
     <row r="629" spans="1:4">
       <c r="A629" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="B629" t="s">
         <v>5</v>
@@ -10754,7 +10931,7 @@
     </row>
     <row r="630" spans="1:4">
       <c r="A630" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="B630" t="s">
         <v>5</v>
@@ -10765,7 +10942,7 @@
     </row>
     <row r="631" spans="1:4">
       <c r="A631" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="B631" t="s">
         <v>5</v>
@@ -10776,7 +10953,7 @@
     </row>
     <row r="632" spans="1:4">
       <c r="A632" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="B632" t="s">
         <v>35</v>
@@ -10784,7 +10961,7 @@
     </row>
     <row r="633" spans="1:4">
       <c r="A633" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="B633" t="s">
         <v>5</v>
@@ -10795,7 +10972,7 @@
     </row>
     <row r="634" spans="1:4">
       <c r="A634" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="B634" t="s">
         <v>5</v>
@@ -10806,7 +10983,7 @@
     </row>
     <row r="635" spans="1:4">
       <c r="A635" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="B635" t="s">
         <v>5</v>
@@ -10817,7 +10994,7 @@
     </row>
     <row r="636" spans="1:4">
       <c r="A636" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="B636" t="s">
         <v>35</v>
@@ -10825,7 +11002,7 @@
     </row>
     <row r="637" spans="1:4">
       <c r="A637" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B637" t="s">
         <v>5</v>
@@ -10836,7 +11013,7 @@
     </row>
     <row r="638" spans="1:4">
       <c r="A638" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="B638" t="s">
         <v>35</v>
@@ -10844,7 +11021,7 @@
     </row>
     <row r="639" spans="1:4">
       <c r="A639" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="B639" t="s">
         <v>35</v>
@@ -10852,7 +11029,7 @@
     </row>
     <row r="640" spans="1:4">
       <c r="A640" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B640" t="s">
         <v>5</v>
@@ -10863,7 +11040,7 @@
     </row>
     <row r="641" spans="1:4">
       <c r="A641" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="B641" t="s">
         <v>35</v>
@@ -10871,7 +11048,7 @@
     </row>
     <row r="642" spans="1:4">
       <c r="A642" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="B642" t="s">
         <v>5</v>
@@ -10882,7 +11059,7 @@
     </row>
     <row r="643" spans="1:4">
       <c r="A643" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B643" t="s">
         <v>5</v>
@@ -10893,7 +11070,7 @@
     </row>
     <row r="644" spans="1:4">
       <c r="A644" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="B644" t="s">
         <v>35</v>
@@ -10901,7 +11078,7 @@
     </row>
     <row r="645" spans="1:4">
       <c r="A645" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="B645" t="s">
         <v>35</v>
@@ -10909,7 +11086,7 @@
     </row>
     <row r="646" spans="1:4">
       <c r="A646" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="B646" t="s">
         <v>35</v>
@@ -10917,7 +11094,7 @@
     </row>
     <row r="647" spans="1:4">
       <c r="A647" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="B647" t="s">
         <v>35</v>
@@ -10925,7 +11102,7 @@
     </row>
     <row r="648" spans="1:4">
       <c r="A648" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B648" t="s">
         <v>35</v>
@@ -10933,7 +11110,7 @@
     </row>
     <row r="649" spans="1:4">
       <c r="A649" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="B649" t="s">
         <v>35</v>
@@ -10941,7 +11118,7 @@
     </row>
     <row r="650" spans="1:4">
       <c r="A650" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="B650" t="s">
         <v>5</v>
@@ -10952,7 +11129,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="B651" t="s">
         <v>35</v>
@@ -10960,7 +11137,7 @@
     </row>
     <row r="652" spans="1:4">
       <c r="A652" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="B652" t="s">
         <v>5</v>
@@ -10971,7 +11148,7 @@
     </row>
     <row r="653" spans="1:4">
       <c r="A653" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="B653" t="s">
         <v>5</v>
@@ -10982,7 +11159,7 @@
     </row>
     <row r="654" spans="1:4">
       <c r="A654" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="B654" t="s">
         <v>5</v>
@@ -10993,29 +11170,29 @@
     </row>
     <row r="655" spans="1:4">
       <c r="A655" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="B655" t="s">
         <v>5</v>
       </c>
       <c r="C655" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
     </row>
     <row r="656" spans="1:4">
       <c r="A656" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="B656" t="s">
         <v>5</v>
       </c>
       <c r="C656" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="657" spans="1:4">
       <c r="A657" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="B657" t="s">
         <v>5</v>
@@ -11026,7 +11203,7 @@
     </row>
     <row r="658" spans="1:4">
       <c r="A658" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="B658" t="s">
         <v>5</v>
@@ -11037,7 +11214,7 @@
     </row>
     <row r="659" spans="1:4">
       <c r="A659" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="B659" t="s">
         <v>5</v>
@@ -11048,7 +11225,7 @@
     </row>
     <row r="660" spans="1:4">
       <c r="A660" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="B660" t="s">
         <v>5</v>
@@ -11059,7 +11236,7 @@
     </row>
     <row r="661" spans="1:4">
       <c r="A661" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="B661" t="s">
         <v>5</v>
@@ -11070,7 +11247,7 @@
     </row>
     <row r="662" spans="1:4">
       <c r="A662" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="B662" t="s">
         <v>5</v>
@@ -11081,18 +11258,18 @@
     </row>
     <row r="663" spans="1:4">
       <c r="A663" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="B663" t="s">
         <v>5</v>
       </c>
       <c r="C663" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
     </row>
     <row r="664" spans="1:4">
       <c r="A664" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="B664" t="s">
         <v>5</v>
@@ -11103,7 +11280,7 @@
     </row>
     <row r="665" spans="1:4">
       <c r="A665" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="B665" t="s">
         <v>5</v>
@@ -11114,7 +11291,7 @@
     </row>
     <row r="666" spans="1:4">
       <c r="A666" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="B666" t="s">
         <v>5</v>
@@ -11125,7 +11302,7 @@
     </row>
     <row r="667" spans="1:4">
       <c r="A667" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="B667" t="s">
         <v>35</v>
@@ -11133,7 +11310,7 @@
     </row>
     <row r="668" spans="1:4">
       <c r="A668" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="B668" t="s">
         <v>5</v>
@@ -11144,7 +11321,7 @@
     </row>
     <row r="669" spans="1:4">
       <c r="A669" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="B669" t="s">
         <v>35</v>
@@ -11152,7 +11329,7 @@
     </row>
     <row r="670" spans="1:4">
       <c r="A670" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="B670" t="s">
         <v>35</v>
@@ -11160,7 +11337,7 @@
     </row>
     <row r="671" spans="1:4">
       <c r="A671" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="B671" t="s">
         <v>5</v>
@@ -11171,7 +11348,7 @@
     </row>
     <row r="672" spans="1:4">
       <c r="A672" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="B672" t="s">
         <v>5</v>
@@ -11182,7 +11359,7 @@
     </row>
     <row r="673" spans="1:4">
       <c r="A673" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="B673" t="s">
         <v>5</v>
@@ -11193,7 +11370,7 @@
     </row>
     <row r="674" spans="1:4">
       <c r="A674" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="B674" t="s">
         <v>35</v>
@@ -11201,7 +11378,7 @@
     </row>
     <row r="675" spans="1:4">
       <c r="A675" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="B675" t="s">
         <v>5</v>
@@ -11212,29 +11389,29 @@
     </row>
     <row r="676" spans="1:4">
       <c r="A676" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="B676" t="s">
         <v>5</v>
       </c>
       <c r="C676" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
     </row>
     <row r="677" spans="1:4">
       <c r="A677" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="B677" t="s">
         <v>5</v>
       </c>
       <c r="C677" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
     </row>
     <row r="678" spans="1:4">
       <c r="A678" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="B678" t="s">
         <v>5</v>
@@ -11245,7 +11422,7 @@
     </row>
     <row r="679" spans="1:4">
       <c r="A679" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="B679" t="s">
         <v>35</v>
@@ -11253,7 +11430,7 @@
     </row>
     <row r="680" spans="1:4">
       <c r="A680" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="B680" t="s">
         <v>5</v>
@@ -11264,40 +11441,40 @@
     </row>
     <row r="681" spans="1:4">
       <c r="A681" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="B681" t="s">
         <v>5</v>
       </c>
       <c r="C681" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="B682" t="s">
         <v>5</v>
       </c>
       <c r="C682" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
     </row>
     <row r="683" spans="1:4">
       <c r="A683" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="B683" t="s">
         <v>5</v>
       </c>
       <c r="C683" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
     </row>
     <row r="684" spans="1:4">
       <c r="A684" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="B684" t="s">
         <v>5</v>
@@ -11308,7 +11485,7 @@
     </row>
     <row r="685" spans="1:4">
       <c r="A685" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="B685" t="s">
         <v>5</v>
@@ -11319,18 +11496,18 @@
     </row>
     <row r="686" spans="1:4">
       <c r="A686" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="B686" t="s">
         <v>5</v>
       </c>
       <c r="C686" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
     </row>
     <row r="687" spans="1:4">
       <c r="A687" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="B687" t="s">
         <v>5</v>
@@ -11341,7 +11518,7 @@
     </row>
     <row r="688" spans="1:4">
       <c r="A688" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="B688" t="s">
         <v>5</v>
@@ -11352,7 +11529,7 @@
     </row>
     <row r="689" spans="1:4">
       <c r="A689" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="B689" t="s">
         <v>5</v>
@@ -11363,7 +11540,7 @@
     </row>
     <row r="690" spans="1:4">
       <c r="A690" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="B690" t="s">
         <v>5</v>
@@ -11374,7 +11551,7 @@
     </row>
     <row r="691" spans="1:4">
       <c r="A691" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="B691" t="s">
         <v>5</v>
@@ -11385,7 +11562,7 @@
     </row>
     <row r="692" spans="1:4">
       <c r="A692" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="B692" t="s">
         <v>5</v>
@@ -11396,7 +11573,7 @@
     </row>
     <row r="693" spans="1:4">
       <c r="A693" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B693" t="s">
         <v>35</v>
@@ -11404,7 +11581,7 @@
     </row>
     <row r="694" spans="1:4">
       <c r="A694" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="B694" t="s">
         <v>35</v>
@@ -11412,7 +11589,7 @@
     </row>
     <row r="695" spans="1:4">
       <c r="A695" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="B695" t="s">
         <v>5</v>
@@ -11423,18 +11600,18 @@
     </row>
     <row r="696" spans="1:4">
       <c r="A696" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="B696" t="s">
         <v>5</v>
       </c>
       <c r="C696" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
     </row>
     <row r="697" spans="1:4">
       <c r="A697" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="B697" t="s">
         <v>5</v>
@@ -11445,7 +11622,7 @@
     </row>
     <row r="698" spans="1:4">
       <c r="A698" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="B698" t="s">
         <v>5</v>
@@ -11456,7 +11633,7 @@
     </row>
     <row r="699" spans="1:4">
       <c r="A699" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="B699" t="s">
         <v>5</v>
@@ -11467,7 +11644,7 @@
     </row>
     <row r="700" spans="1:4">
       <c r="A700" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="B700" t="s">
         <v>5</v>
@@ -11478,7 +11655,7 @@
     </row>
     <row r="701" spans="1:4">
       <c r="A701" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="B701" t="s">
         <v>5</v>
@@ -11489,7 +11666,7 @@
     </row>
     <row r="702" spans="1:4">
       <c r="A702" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="B702" t="s">
         <v>35</v>
@@ -11497,18 +11674,18 @@
     </row>
     <row r="703" spans="1:4">
       <c r="A703" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="B703" t="s">
         <v>5</v>
       </c>
       <c r="C703" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="B704" t="s">
         <v>5</v>
@@ -11519,7 +11696,7 @@
     </row>
     <row r="705" spans="1:4">
       <c r="A705" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="B705" t="s">
         <v>35</v>
@@ -11527,7 +11704,7 @@
     </row>
     <row r="706" spans="1:4">
       <c r="A706" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="B706" t="s">
         <v>35</v>
@@ -11535,18 +11712,18 @@
     </row>
     <row r="707" spans="1:4">
       <c r="A707" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="B707" t="s">
         <v>5</v>
       </c>
       <c r="C707" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="708" spans="1:4">
       <c r="A708" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="B708" t="s">
         <v>5</v>
@@ -11557,7 +11734,7 @@
     </row>
     <row r="709" spans="1:4">
       <c r="A709" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="B709" t="s">
         <v>5</v>
@@ -11568,7 +11745,7 @@
     </row>
     <row r="710" spans="1:4">
       <c r="A710" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="B710" t="s">
         <v>5</v>
@@ -11579,7 +11756,7 @@
     </row>
     <row r="711" spans="1:4">
       <c r="A711" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="B711" t="s">
         <v>5</v>
@@ -11590,7 +11767,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="B712" t="s">
         <v>35</v>
@@ -11598,7 +11775,7 @@
     </row>
     <row r="713" spans="1:4">
       <c r="A713" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="B713" t="s">
         <v>5</v>
@@ -11609,7 +11786,7 @@
     </row>
     <row r="714" spans="1:4">
       <c r="A714" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="B714" t="s">
         <v>35</v>
@@ -11617,7 +11794,7 @@
     </row>
     <row r="715" spans="1:4">
       <c r="A715" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="B715" t="s">
         <v>5</v>
@@ -11628,7 +11805,7 @@
     </row>
     <row r="716" spans="1:4">
       <c r="A716" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="B716" t="s">
         <v>5</v>
@@ -11639,7 +11816,7 @@
     </row>
     <row r="717" spans="1:4">
       <c r="A717" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="B717" t="s">
         <v>5</v>
@@ -11650,7 +11827,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="B718" t="s">
         <v>5</v>
@@ -11661,7 +11838,7 @@
     </row>
     <row r="719" spans="1:4">
       <c r="A719" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="B719" t="s">
         <v>5</v>
@@ -11672,7 +11849,7 @@
     </row>
     <row r="720" spans="1:4">
       <c r="A720" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="B720" t="s">
         <v>5</v>
@@ -11683,7 +11860,7 @@
     </row>
     <row r="721" spans="1:4">
       <c r="A721" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="B721" t="s">
         <v>5</v>
@@ -11694,18 +11871,18 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="B722" t="s">
         <v>5</v>
       </c>
       <c r="C722" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="723" spans="1:4">
       <c r="A723" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B723" t="s">
         <v>35</v>
@@ -11713,7 +11890,7 @@
     </row>
     <row r="724" spans="1:4">
       <c r="A724" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="B724" t="s">
         <v>35</v>
@@ -11721,7 +11898,7 @@
     </row>
     <row r="725" spans="1:4">
       <c r="A725" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="B725" t="s">
         <v>5</v>
@@ -11732,7 +11909,7 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="B726" t="s">
         <v>5</v>
@@ -11743,7 +11920,7 @@
     </row>
     <row r="727" spans="1:4">
       <c r="A727" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="B727" t="s">
         <v>35</v>
@@ -11751,29 +11928,29 @@
     </row>
     <row r="728" spans="1:4">
       <c r="A728" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="B728" t="s">
         <v>5</v>
       </c>
       <c r="C728" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="729" spans="1:4">
       <c r="A729" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="B729" t="s">
         <v>5</v>
       </c>
       <c r="C729" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="730" spans="1:4">
       <c r="A730" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="B730" t="s">
         <v>5</v>
@@ -11784,7 +11961,7 @@
     </row>
     <row r="731" spans="1:4">
       <c r="A731" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="B731" t="s">
         <v>5</v>
@@ -11795,18 +11972,18 @@
     </row>
     <row r="732" spans="1:4">
       <c r="A732" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="B732" t="s">
         <v>5</v>
       </c>
       <c r="C732" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="733" spans="1:4">
       <c r="A733" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="B733" t="s">
         <v>5</v>
@@ -11817,7 +11994,7 @@
     </row>
     <row r="734" spans="1:4">
       <c r="A734" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B734" t="s">
         <v>5</v>
@@ -11828,7 +12005,7 @@
     </row>
     <row r="735" spans="1:4">
       <c r="A735" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="B735" t="s">
         <v>5</v>
@@ -11839,7 +12016,7 @@
     </row>
     <row r="736" spans="1:4">
       <c r="A736" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="B736" t="s">
         <v>5</v>
@@ -11850,7 +12027,7 @@
     </row>
     <row r="737" spans="1:4">
       <c r="A737" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="B737" t="s">
         <v>5</v>
@@ -11861,7 +12038,7 @@
     </row>
     <row r="738" spans="1:4">
       <c r="A738" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="B738" t="s">
         <v>5</v>
@@ -11872,18 +12049,18 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="B739" t="s">
         <v>5</v>
       </c>
       <c r="C739" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="740" spans="1:4">
       <c r="A740" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="B740" t="s">
         <v>5</v>
@@ -11894,7 +12071,7 @@
     </row>
     <row r="741" spans="1:4">
       <c r="A741" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="B741" t="s">
         <v>5</v>
@@ -11905,7 +12082,7 @@
     </row>
     <row r="742" spans="1:4">
       <c r="A742" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="B742" t="s">
         <v>5</v>
@@ -11916,7 +12093,7 @@
     </row>
     <row r="743" spans="1:4">
       <c r="A743" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="B743" t="s">
         <v>35</v>
@@ -11924,7 +12101,7 @@
     </row>
     <row r="744" spans="1:4">
       <c r="A744" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="B744" t="s">
         <v>5</v>
@@ -11935,7 +12112,7 @@
     </row>
     <row r="745" spans="1:4">
       <c r="A745" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="B745" t="s">
         <v>35</v>
@@ -11943,18 +12120,18 @@
     </row>
     <row r="746" spans="1:4">
       <c r="A746" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="B746" t="s">
         <v>5</v>
       </c>
       <c r="C746" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="747" spans="1:4">
       <c r="A747" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="B747" t="s">
         <v>5</v>
@@ -11965,18 +12142,18 @@
     </row>
     <row r="748" spans="1:4">
       <c r="A748" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="B748" t="s">
         <v>5</v>
       </c>
       <c r="C748" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="749" spans="1:4">
       <c r="A749" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="B749" t="s">
         <v>5</v>
@@ -11987,7 +12164,7 @@
     </row>
     <row r="750" spans="1:4">
       <c r="A750" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="B750" t="s">
         <v>5</v>
@@ -11998,7 +12175,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="B751" t="s">
         <v>35</v>
@@ -12006,18 +12183,18 @@
     </row>
     <row r="752" spans="1:4">
       <c r="A752" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="B752" t="s">
         <v>5</v>
       </c>
       <c r="C752" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="753" spans="1:4">
       <c r="A753" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="B753" t="s">
         <v>5</v>
@@ -12028,7 +12205,7 @@
     </row>
     <row r="754" spans="1:4">
       <c r="A754" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="B754" t="s">
         <v>5</v>
@@ -12039,7 +12216,7 @@
     </row>
     <row r="755" spans="1:4">
       <c r="A755" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="B755" t="s">
         <v>5</v>
@@ -12050,29 +12227,29 @@
     </row>
     <row r="756" spans="1:4">
       <c r="A756" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="B756" t="s">
         <v>5</v>
       </c>
       <c r="C756" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="757" spans="1:4">
       <c r="A757" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="B757" t="s">
         <v>5</v>
       </c>
       <c r="C757" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="758" spans="1:4">
       <c r="A758" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="B758" t="s">
         <v>5</v>
@@ -12083,7 +12260,7 @@
     </row>
     <row r="759" spans="1:4">
       <c r="A759" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="B759" t="s">
         <v>35</v>
@@ -12091,7 +12268,7 @@
     </row>
     <row r="760" spans="1:4">
       <c r="A760" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="B760" t="s">
         <v>5</v>
@@ -12102,7 +12279,7 @@
     </row>
     <row r="761" spans="1:4">
       <c r="A761" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="B761" t="s">
         <v>35</v>
@@ -12110,7 +12287,7 @@
     </row>
     <row r="762" spans="1:4">
       <c r="A762" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="B762" t="s">
         <v>35</v>
@@ -12118,7 +12295,7 @@
     </row>
     <row r="763" spans="1:4">
       <c r="A763" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="B763" t="s">
         <v>35</v>
@@ -12126,18 +12303,18 @@
     </row>
     <row r="764" spans="1:4">
       <c r="A764" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="B764" t="s">
         <v>5</v>
       </c>
       <c r="C764" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="765" spans="1:4">
       <c r="A765" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="B765" t="s">
         <v>5</v>
@@ -12148,7 +12325,7 @@
     </row>
     <row r="766" spans="1:4">
       <c r="A766" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="B766" t="s">
         <v>35</v>
@@ -12156,7 +12333,7 @@
     </row>
     <row r="767" spans="1:4">
       <c r="A767" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="B767" t="s">
         <v>5</v>
@@ -12167,7 +12344,7 @@
     </row>
     <row r="768" spans="1:4">
       <c r="A768" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="B768" t="s">
         <v>5</v>
@@ -12178,7 +12355,7 @@
     </row>
     <row r="769" spans="1:4">
       <c r="A769" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="B769" t="s">
         <v>35</v>
@@ -12186,7 +12363,7 @@
     </row>
     <row r="770" spans="1:4">
       <c r="A770" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="B770" t="s">
         <v>5</v>
@@ -12197,18 +12374,18 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="B771" t="s">
         <v>5</v>
       </c>
       <c r="C771" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="772" spans="1:4">
       <c r="A772" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="B772" t="s">
         <v>5</v>
@@ -12219,7 +12396,7 @@
     </row>
     <row r="773" spans="1:4">
       <c r="A773" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="B773" t="s">
         <v>5</v>
@@ -12230,7 +12407,7 @@
     </row>
     <row r="774" spans="1:4">
       <c r="A774" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="B774" t="s">
         <v>5</v>
@@ -12241,7 +12418,7 @@
     </row>
     <row r="775" spans="1:4">
       <c r="A775" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B775" t="s">
         <v>5</v>
@@ -12252,18 +12429,18 @@
     </row>
     <row r="776" spans="1:4">
       <c r="A776" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="B776" t="s">
         <v>5</v>
       </c>
       <c r="C776" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="777" spans="1:4">
       <c r="A777" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="B777" t="s">
         <v>5</v>
@@ -12274,7 +12451,7 @@
     </row>
     <row r="778" spans="1:4">
       <c r="A778" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="B778" t="s">
         <v>5</v>
@@ -12285,40 +12462,40 @@
     </row>
     <row r="779" spans="1:4">
       <c r="A779" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="B779" t="s">
         <v>5</v>
       </c>
       <c r="C779" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="780" spans="1:4">
       <c r="A780" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="B780" t="s">
         <v>5</v>
       </c>
       <c r="C780" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="781" spans="1:4">
       <c r="A781" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="B781" t="s">
         <v>5</v>
       </c>
       <c r="C781" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="782" spans="1:4">
       <c r="A782" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="B782" t="s">
         <v>5</v>
@@ -12329,7 +12506,7 @@
     </row>
     <row r="783" spans="1:4">
       <c r="A783" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="B783" t="s">
         <v>5</v>
@@ -12340,7 +12517,7 @@
     </row>
     <row r="784" spans="1:4">
       <c r="A784" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="B784" t="s">
         <v>5</v>
@@ -12351,7 +12528,7 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="B785" t="s">
         <v>5</v>
@@ -12362,7 +12539,7 @@
     </row>
     <row r="786" spans="1:4">
       <c r="A786" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="B786" t="s">
         <v>35</v>
@@ -12370,7 +12547,7 @@
     </row>
     <row r="787" spans="1:4">
       <c r="A787" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="B787" t="s">
         <v>5</v>
@@ -12381,7 +12558,7 @@
     </row>
     <row r="788" spans="1:4">
       <c r="A788" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="B788" t="s">
         <v>5</v>
@@ -12392,29 +12569,29 @@
     </row>
     <row r="789" spans="1:4">
       <c r="A789" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="B789" t="s">
         <v>5</v>
       </c>
       <c r="C789" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="790" spans="1:4">
       <c r="A790" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="B790" t="s">
         <v>5</v>
       </c>
       <c r="C790" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="791" spans="1:4">
       <c r="A791" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="B791" t="s">
         <v>5</v>
@@ -12425,18 +12602,18 @@
     </row>
     <row r="792" spans="1:4">
       <c r="A792" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B792" t="s">
         <v>5</v>
       </c>
       <c r="C792" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="793" spans="1:4">
       <c r="A793" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="B793" t="s">
         <v>5</v>
@@ -12447,7 +12624,7 @@
     </row>
     <row r="794" spans="1:4">
       <c r="A794" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="B794" t="s">
         <v>5</v>
@@ -12458,7 +12635,7 @@
     </row>
     <row r="795" spans="1:4">
       <c r="A795" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="B795" t="s">
         <v>5</v>
@@ -12469,7 +12646,7 @@
     </row>
     <row r="796" spans="1:4">
       <c r="A796" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="B796" t="s">
         <v>5</v>
@@ -12480,7 +12657,7 @@
     </row>
     <row r="797" spans="1:4">
       <c r="A797" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="B797" t="s">
         <v>5</v>
@@ -12491,7 +12668,7 @@
     </row>
     <row r="798" spans="1:4">
       <c r="A798" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="B798" t="s">
         <v>35</v>
@@ -12499,7 +12676,7 @@
     </row>
     <row r="799" spans="1:4">
       <c r="A799" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="B799" t="s">
         <v>5</v>
@@ -12510,18 +12687,18 @@
     </row>
     <row r="800" spans="1:4">
       <c r="A800" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="B800" t="s">
         <v>5</v>
       </c>
       <c r="C800" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="801" spans="1:4">
       <c r="A801" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="B801" t="s">
         <v>5</v>
@@ -12532,51 +12709,51 @@
     </row>
     <row r="802" spans="1:4">
       <c r="A802" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="B802" t="s">
         <v>5</v>
       </c>
       <c r="C802" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="803" spans="1:4">
       <c r="A803" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="B803" t="s">
         <v>5</v>
       </c>
       <c r="C803" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="804" spans="1:4">
       <c r="A804" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="B804" t="s">
         <v>5</v>
       </c>
       <c r="C804" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="805" spans="1:4">
       <c r="A805" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="B805" t="s">
         <v>5</v>
       </c>
       <c r="C805" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="806" spans="1:4">
       <c r="A806" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="B806" t="s">
         <v>5</v>
@@ -12587,18 +12764,18 @@
     </row>
     <row r="807" spans="1:4">
       <c r="A807" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="B807" t="s">
         <v>5</v>
       </c>
       <c r="C807" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="808" spans="1:4">
       <c r="A808" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="B808" t="s">
         <v>5</v>
@@ -12609,62 +12786,62 @@
     </row>
     <row r="809" spans="1:4">
       <c r="A809" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="B809" t="s">
         <v>5</v>
       </c>
       <c r="C809" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="810" spans="1:4">
       <c r="A810" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="B810" t="s">
         <v>5</v>
       </c>
       <c r="C810" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
     </row>
     <row r="811" spans="1:4">
       <c r="A811" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="B811" t="s">
         <v>5</v>
       </c>
       <c r="C811" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
     </row>
     <row r="812" spans="1:4">
       <c r="A812" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="B812" t="s">
         <v>5</v>
       </c>
       <c r="C812" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
     </row>
     <row r="813" spans="1:4">
       <c r="A813" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="B813" t="s">
         <v>5</v>
       </c>
       <c r="C813" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
     </row>
     <row r="814" spans="1:4">
       <c r="A814" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="B814" t="s">
         <v>5</v>
@@ -12675,18 +12852,18 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="B815" t="s">
         <v>5</v>
       </c>
       <c r="C815" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
     </row>
     <row r="816" spans="1:4">
       <c r="A816" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="B816" t="s">
         <v>5</v>
@@ -12697,7 +12874,7 @@
     </row>
     <row r="817" spans="1:4">
       <c r="A817" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="B817" t="s">
         <v>5</v>
@@ -12708,7 +12885,7 @@
     </row>
     <row r="818" spans="1:4">
       <c r="A818" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="B818" t="s">
         <v>5</v>
@@ -12719,7 +12896,7 @@
     </row>
     <row r="819" spans="1:4">
       <c r="A819" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="B819" t="s">
         <v>5</v>
@@ -12730,7 +12907,7 @@
     </row>
     <row r="820" spans="1:4">
       <c r="A820" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
       <c r="B820" t="s">
         <v>5</v>
@@ -12741,7 +12918,7 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="B821" t="s">
         <v>5</v>
@@ -12752,7 +12929,7 @@
     </row>
     <row r="822" spans="1:4">
       <c r="A822" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="B822" t="s">
         <v>5</v>
@@ -12763,7 +12940,7 @@
     </row>
     <row r="823" spans="1:4">
       <c r="A823" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="B823" t="s">
         <v>5</v>
@@ -12774,7 +12951,7 @@
     </row>
     <row r="824" spans="1:4">
       <c r="A824" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="B824" t="s">
         <v>5</v>
@@ -12785,7 +12962,7 @@
     </row>
     <row r="825" spans="1:4">
       <c r="A825" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="B825" t="s">
         <v>5</v>
@@ -12796,7 +12973,7 @@
     </row>
     <row r="826" spans="1:4">
       <c r="A826" t="s">
-        <v>905</v>
+        <v>918</v>
       </c>
       <c r="B826" t="s">
         <v>5</v>
@@ -12807,7 +12984,7 @@
     </row>
     <row r="827" spans="1:4">
       <c r="A827" t="s">
-        <v>906</v>
+        <v>919</v>
       </c>
       <c r="B827" t="s">
         <v>35</v>
@@ -12815,7 +12992,7 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" t="s">
-        <v>907</v>
+        <v>920</v>
       </c>
       <c r="B828" t="s">
         <v>35</v>
@@ -12823,7 +13000,7 @@
     </row>
     <row r="829" spans="1:4">
       <c r="A829" t="s">
-        <v>908</v>
+        <v>921</v>
       </c>
       <c r="B829" t="s">
         <v>5</v>
@@ -12834,7 +13011,7 @@
     </row>
     <row r="830" spans="1:4">
       <c r="A830" t="s">
-        <v>909</v>
+        <v>922</v>
       </c>
       <c r="B830" t="s">
         <v>5</v>
@@ -12845,29 +13022,29 @@
     </row>
     <row r="831" spans="1:4">
       <c r="A831" t="s">
-        <v>910</v>
+        <v>923</v>
       </c>
       <c r="B831" t="s">
         <v>5</v>
       </c>
       <c r="C831" t="s">
-        <v>911</v>
+        <v>924</v>
       </c>
     </row>
     <row r="832" spans="1:4">
       <c r="A832" t="s">
-        <v>912</v>
+        <v>925</v>
       </c>
       <c r="B832" t="s">
         <v>5</v>
       </c>
       <c r="C832" t="s">
-        <v>913</v>
+        <v>926</v>
       </c>
     </row>
     <row r="833" spans="1:4">
       <c r="A833" t="s">
-        <v>914</v>
+        <v>927</v>
       </c>
       <c r="B833" t="s">
         <v>5</v>
@@ -12878,51 +13055,51 @@
     </row>
     <row r="834" spans="1:4">
       <c r="A834" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
       <c r="B834" t="s">
         <v>5</v>
       </c>
       <c r="C834" t="s">
-        <v>916</v>
+        <v>929</v>
       </c>
     </row>
     <row r="835" spans="1:4">
       <c r="A835" t="s">
-        <v>917</v>
+        <v>930</v>
       </c>
       <c r="B835" t="s">
         <v>5</v>
       </c>
       <c r="C835" t="s">
-        <v>918</v>
+        <v>931</v>
       </c>
     </row>
     <row r="836" spans="1:4">
       <c r="A836" t="s">
-        <v>919</v>
+        <v>932</v>
       </c>
       <c r="B836" t="s">
         <v>5</v>
       </c>
       <c r="C836" t="s">
-        <v>920</v>
+        <v>933</v>
       </c>
     </row>
     <row r="837" spans="1:4">
       <c r="A837" t="s">
-        <v>921</v>
+        <v>934</v>
       </c>
       <c r="B837" t="s">
         <v>5</v>
       </c>
       <c r="C837" t="s">
-        <v>922</v>
+        <v>935</v>
       </c>
     </row>
     <row r="838" spans="1:4">
       <c r="A838" t="s">
-        <v>923</v>
+        <v>936</v>
       </c>
       <c r="B838" t="s">
         <v>5</v>
@@ -12933,40 +13110,40 @@
     </row>
     <row r="839" spans="1:4">
       <c r="A839" t="s">
-        <v>924</v>
+        <v>937</v>
       </c>
       <c r="B839" t="s">
         <v>5</v>
       </c>
       <c r="C839" t="s">
-        <v>925</v>
+        <v>938</v>
       </c>
     </row>
     <row r="840" spans="1:4">
       <c r="A840" t="s">
-        <v>926</v>
+        <v>939</v>
       </c>
       <c r="B840" t="s">
         <v>5</v>
       </c>
       <c r="C840" t="s">
-        <v>927</v>
+        <v>940</v>
       </c>
     </row>
     <row r="841" spans="1:4">
       <c r="A841" t="s">
-        <v>928</v>
+        <v>941</v>
       </c>
       <c r="B841" t="s">
         <v>5</v>
       </c>
       <c r="C841" t="s">
-        <v>929</v>
+        <v>942</v>
       </c>
     </row>
     <row r="842" spans="1:4">
       <c r="A842" t="s">
-        <v>930</v>
+        <v>943</v>
       </c>
       <c r="B842" t="s">
         <v>5</v>
@@ -12977,7 +13154,7 @@
     </row>
     <row r="843" spans="1:4">
       <c r="A843" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="B843" t="s">
         <v>5</v>
@@ -12988,7 +13165,7 @@
     </row>
     <row r="844" spans="1:4">
       <c r="A844" t="s">
-        <v>931</v>
+        <v>944</v>
       </c>
       <c r="B844" t="s">
         <v>5</v>
@@ -12999,7 +13176,7 @@
     </row>
     <row r="845" spans="1:4">
       <c r="A845" t="s">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="B845" t="s">
         <v>5</v>
@@ -13010,7 +13187,7 @@
     </row>
     <row r="846" spans="1:4">
       <c r="A846" t="s">
-        <v>933</v>
+        <v>946</v>
       </c>
       <c r="B846" t="s">
         <v>5</v>
@@ -13021,7 +13198,7 @@
     </row>
     <row r="847" spans="1:4">
       <c r="A847" t="s">
-        <v>934</v>
+        <v>947</v>
       </c>
       <c r="B847" t="s">
         <v>35</v>
@@ -13029,7 +13206,7 @@
     </row>
     <row r="848" spans="1:4">
       <c r="A848" t="s">
-        <v>935</v>
+        <v>948</v>
       </c>
       <c r="B848" t="s">
         <v>35</v>
@@ -13037,40 +13214,40 @@
     </row>
     <row r="849" spans="1:4">
       <c r="A849" t="s">
-        <v>936</v>
+        <v>949</v>
       </c>
       <c r="B849" t="s">
         <v>5</v>
       </c>
       <c r="C849" t="s">
-        <v>937</v>
+        <v>950</v>
       </c>
     </row>
     <row r="850" spans="1:4">
       <c r="A850" t="s">
-        <v>938</v>
+        <v>951</v>
       </c>
       <c r="B850" t="s">
         <v>5</v>
       </c>
       <c r="C850" t="s">
-        <v>939</v>
+        <v>952</v>
       </c>
     </row>
     <row r="851" spans="1:4">
       <c r="A851" t="s">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="B851" t="s">
         <v>5</v>
       </c>
       <c r="C851" t="s">
-        <v>941</v>
+        <v>954</v>
       </c>
     </row>
     <row r="852" spans="1:4">
       <c r="A852" t="s">
-        <v>942</v>
+        <v>955</v>
       </c>
       <c r="B852" t="s">
         <v>5</v>
@@ -13081,40 +13258,40 @@
     </row>
     <row r="853" spans="1:4">
       <c r="A853" t="s">
-        <v>943</v>
+        <v>956</v>
       </c>
       <c r="B853" t="s">
         <v>5</v>
       </c>
       <c r="C853" t="s">
-        <v>944</v>
+        <v>957</v>
       </c>
     </row>
     <row r="854" spans="1:4">
       <c r="A854" t="s">
-        <v>945</v>
+        <v>958</v>
       </c>
       <c r="B854" t="s">
         <v>5</v>
       </c>
       <c r="C854" t="s">
-        <v>946</v>
+        <v>959</v>
       </c>
     </row>
     <row r="855" spans="1:4">
       <c r="A855" t="s">
-        <v>947</v>
+        <v>960</v>
       </c>
       <c r="B855" t="s">
         <v>5</v>
       </c>
       <c r="C855" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
     </row>
     <row r="856" spans="1:4">
       <c r="A856" t="s">
-        <v>949</v>
+        <v>962</v>
       </c>
       <c r="B856" t="s">
         <v>5</v>
@@ -13125,7 +13302,7 @@
     </row>
     <row r="857" spans="1:4">
       <c r="A857" t="s">
-        <v>950</v>
+        <v>963</v>
       </c>
       <c r="B857" t="s">
         <v>5</v>
@@ -13136,7 +13313,7 @@
     </row>
     <row r="858" spans="1:4">
       <c r="A858" t="s">
-        <v>951</v>
+        <v>964</v>
       </c>
       <c r="B858" t="s">
         <v>5</v>
@@ -13147,7 +13324,7 @@
     </row>
     <row r="859" spans="1:4">
       <c r="A859" t="s">
-        <v>952</v>
+        <v>965</v>
       </c>
       <c r="B859" t="s">
         <v>5</v>
@@ -13158,7 +13335,7 @@
     </row>
     <row r="860" spans="1:4">
       <c r="A860" t="s">
-        <v>953</v>
+        <v>966</v>
       </c>
       <c r="B860" t="s">
         <v>5</v>
@@ -13169,7 +13346,7 @@
     </row>
     <row r="861" spans="1:4">
       <c r="A861" t="s">
-        <v>954</v>
+        <v>967</v>
       </c>
       <c r="B861" t="s">
         <v>5</v>
@@ -13180,7 +13357,7 @@
     </row>
     <row r="862" spans="1:4">
       <c r="A862" t="s">
-        <v>955</v>
+        <v>968</v>
       </c>
       <c r="B862" t="s">
         <v>35</v>
@@ -13188,7 +13365,7 @@
     </row>
     <row r="863" spans="1:4">
       <c r="A863" t="s">
-        <v>956</v>
+        <v>969</v>
       </c>
       <c r="B863" t="s">
         <v>35</v>
@@ -13196,7 +13373,7 @@
     </row>
     <row r="864" spans="1:4">
       <c r="A864" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="B864" t="s">
         <v>5</v>
@@ -13207,7 +13384,7 @@
     </row>
     <row r="865" spans="1:4">
       <c r="A865" t="s">
-        <v>958</v>
+        <v>971</v>
       </c>
       <c r="B865" t="s">
         <v>5</v>
@@ -13218,18 +13395,18 @@
     </row>
     <row r="866" spans="1:4">
       <c r="A866" t="s">
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="B866" t="s">
         <v>5</v>
       </c>
       <c r="C866" t="s">
-        <v>960</v>
+        <v>973</v>
       </c>
     </row>
     <row r="867" spans="1:4">
       <c r="A867" t="s">
-        <v>961</v>
+        <v>974</v>
       </c>
       <c r="B867" t="s">
         <v>5</v>
@@ -13240,7 +13417,7 @@
     </row>
     <row r="868" spans="1:4">
       <c r="A868" t="s">
-        <v>962</v>
+        <v>975</v>
       </c>
       <c r="B868" t="s">
         <v>5</v>
@@ -13251,7 +13428,7 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" t="s">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="B869" t="s">
         <v>35</v>
@@ -13259,7 +13436,7 @@
     </row>
     <row r="870" spans="1:4">
       <c r="A870" t="s">
-        <v>964</v>
+        <v>977</v>
       </c>
       <c r="B870" t="s">
         <v>35</v>
@@ -13267,7 +13444,7 @@
     </row>
     <row r="871" spans="1:4">
       <c r="A871" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="B871" t="s">
         <v>35</v>
@@ -13275,7 +13452,7 @@
     </row>
     <row r="872" spans="1:4">
       <c r="A872" t="s">
-        <v>966</v>
+        <v>979</v>
       </c>
       <c r="B872" t="s">
         <v>35</v>
@@ -13283,7 +13460,7 @@
     </row>
     <row r="873" spans="1:4">
       <c r="A873" t="s">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="B873" t="s">
         <v>5</v>
@@ -13294,7 +13471,7 @@
     </row>
     <row r="874" spans="1:4">
       <c r="A874" t="s">
-        <v>968</v>
+        <v>981</v>
       </c>
       <c r="B874" t="s">
         <v>35</v>
@@ -13302,7 +13479,7 @@
     </row>
     <row r="875" spans="1:4">
       <c r="A875" t="s">
-        <v>969</v>
+        <v>982</v>
       </c>
       <c r="B875" t="s">
         <v>35</v>
@@ -13310,40 +13487,40 @@
     </row>
     <row r="876" spans="1:4">
       <c r="A876" t="s">
-        <v>970</v>
+        <v>983</v>
       </c>
       <c r="B876" t="s">
         <v>5</v>
       </c>
       <c r="C876" t="s">
-        <v>971</v>
+        <v>984</v>
       </c>
     </row>
     <row r="877" spans="1:4">
       <c r="A877" t="s">
-        <v>972</v>
+        <v>985</v>
       </c>
       <c r="B877" t="s">
         <v>5</v>
       </c>
       <c r="C877" t="s">
-        <v>973</v>
+        <v>986</v>
       </c>
     </row>
     <row r="878" spans="1:4">
       <c r="A878" t="s">
-        <v>974</v>
+        <v>987</v>
       </c>
       <c r="B878" t="s">
         <v>5</v>
       </c>
       <c r="C878" t="s">
-        <v>975</v>
+        <v>988</v>
       </c>
     </row>
     <row r="879" spans="1:4">
       <c r="A879" t="s">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="B879" t="s">
         <v>5</v>
@@ -13354,18 +13531,18 @@
     </row>
     <row r="880" spans="1:4">
       <c r="A880" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
       <c r="B880" t="s">
         <v>5</v>
       </c>
       <c r="C880" t="s">
-        <v>978</v>
+        <v>991</v>
       </c>
     </row>
     <row r="881" spans="1:4">
       <c r="A881" t="s">
-        <v>979</v>
+        <v>992</v>
       </c>
       <c r="B881" t="s">
         <v>5</v>
@@ -13376,18 +13553,18 @@
     </row>
     <row r="882" spans="1:4">
       <c r="A882" t="s">
-        <v>980</v>
+        <v>993</v>
       </c>
       <c r="B882" t="s">
         <v>5</v>
       </c>
       <c r="C882" t="s">
-        <v>981</v>
+        <v>994</v>
       </c>
     </row>
     <row r="883" spans="1:4">
       <c r="A883" t="s">
-        <v>982</v>
+        <v>995</v>
       </c>
       <c r="B883" t="s">
         <v>5</v>
@@ -13398,18 +13575,18 @@
     </row>
     <row r="884" spans="1:4">
       <c r="A884" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
       <c r="B884" t="s">
         <v>5</v>
       </c>
       <c r="C884" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="885" spans="1:4">
       <c r="A885" t="s">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="B885" t="s">
         <v>5</v>
@@ -13420,18 +13597,18 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" t="s">
-        <v>986</v>
+        <v>999</v>
       </c>
       <c r="B886" t="s">
         <v>5</v>
       </c>
       <c r="C886" t="s">
-        <v>987</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="887" spans="1:4">
       <c r="A887" t="s">
-        <v>988</v>
+        <v>1001</v>
       </c>
       <c r="B887" t="s">
         <v>5</v>
@@ -13442,18 +13619,18 @@
     </row>
     <row r="888" spans="1:4">
       <c r="A888" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="B888" t="s">
         <v>5</v>
       </c>
       <c r="C888" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="889" spans="1:4">
       <c r="A889" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
       <c r="B889" t="s">
         <v>5</v>
@@ -13464,7 +13641,7 @@
     </row>
     <row r="890" spans="1:4">
       <c r="A890" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="B890" t="s">
         <v>5</v>
@@ -13475,7 +13652,7 @@
     </row>
     <row r="891" spans="1:4">
       <c r="A891" t="s">
-        <v>993</v>
+        <v>1006</v>
       </c>
       <c r="B891" t="s">
         <v>5</v>
@@ -13486,7 +13663,7 @@
     </row>
     <row r="892" spans="1:4">
       <c r="A892" t="s">
-        <v>994</v>
+        <v>1007</v>
       </c>
       <c r="B892" t="s">
         <v>5</v>
@@ -13497,7 +13674,7 @@
     </row>
     <row r="893" spans="1:4">
       <c r="A893" t="s">
-        <v>995</v>
+        <v>1008</v>
       </c>
       <c r="B893" t="s">
         <v>5</v>
@@ -13508,7 +13685,7 @@
     </row>
     <row r="894" spans="1:4">
       <c r="A894" t="s">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="B894" t="s">
         <v>5</v>
@@ -13519,7 +13696,7 @@
     </row>
     <row r="895" spans="1:4">
       <c r="A895" t="s">
-        <v>997</v>
+        <v>1010</v>
       </c>
       <c r="B895" t="s">
         <v>5</v>
@@ -13530,7 +13707,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" t="s">
-        <v>998</v>
+        <v>1011</v>
       </c>
       <c r="B896" t="s">
         <v>35</v>
@@ -13538,7 +13715,7 @@
     </row>
     <row r="897" spans="1:4">
       <c r="A897" t="s">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="B897" t="s">
         <v>35</v>
@@ -13546,62 +13723,62 @@
     </row>
     <row r="898" spans="1:4">
       <c r="A898" t="s">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="B898" t="s">
         <v>5</v>
       </c>
       <c r="C898" t="s">
-        <v>1001</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="899" spans="1:4">
       <c r="A899" t="s">
-        <v>1002</v>
+        <v>1015</v>
       </c>
       <c r="B899" t="s">
         <v>5</v>
       </c>
       <c r="C899" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="900" spans="1:4">
       <c r="A900" t="s">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="B900" t="s">
         <v>5</v>
       </c>
       <c r="C900" t="s">
-        <v>1005</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="901" spans="1:4">
       <c r="A901" t="s">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B901" t="s">
         <v>5</v>
       </c>
       <c r="C901" t="s">
-        <v>1007</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="902" spans="1:4">
       <c r="A902" t="s">
-        <v>1008</v>
+        <v>1021</v>
       </c>
       <c r="B902" t="s">
         <v>5</v>
       </c>
       <c r="C902" t="s">
-        <v>1009</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="903" spans="1:4">
       <c r="A903" t="s">
-        <v>1010</v>
+        <v>1023</v>
       </c>
       <c r="B903" t="s">
         <v>5</v>
@@ -13612,40 +13789,40 @@
     </row>
     <row r="904" spans="1:4">
       <c r="A904" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
       <c r="B904" t="s">
         <v>5</v>
       </c>
       <c r="C904" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="905" spans="1:4">
       <c r="A905" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="B905" t="s">
         <v>5</v>
       </c>
       <c r="C905" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="906" spans="1:4">
       <c r="A906" t="s">
-        <v>1015</v>
+        <v>1028</v>
       </c>
       <c r="B906" t="s">
         <v>5</v>
       </c>
       <c r="C906" t="s">
-        <v>1016</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="907" spans="1:4">
       <c r="A907" t="s">
-        <v>1017</v>
+        <v>1030</v>
       </c>
       <c r="B907" t="s">
         <v>5</v>
@@ -13656,7 +13833,7 @@
     </row>
     <row r="908" spans="1:4">
       <c r="A908" t="s">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="B908" t="s">
         <v>5</v>
@@ -13667,18 +13844,18 @@
     </row>
     <row r="909" spans="1:4">
       <c r="A909" t="s">
-        <v>1019</v>
+        <v>1032</v>
       </c>
       <c r="B909" t="s">
         <v>5</v>
       </c>
       <c r="C909" t="s">
-        <v>1020</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="910" spans="1:4">
       <c r="A910" t="s">
-        <v>1021</v>
+        <v>1034</v>
       </c>
       <c r="B910" t="s">
         <v>5</v>
@@ -13689,7 +13866,7 @@
     </row>
     <row r="911" spans="1:4">
       <c r="A911" t="s">
-        <v>1022</v>
+        <v>1035</v>
       </c>
       <c r="B911" t="s">
         <v>5</v>
@@ -13700,18 +13877,18 @@
     </row>
     <row r="912" spans="1:4">
       <c r="A912" t="s">
-        <v>1023</v>
+        <v>1036</v>
       </c>
       <c r="B912" t="s">
         <v>5</v>
       </c>
       <c r="C912" t="s">
-        <v>1024</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="913" spans="1:4">
       <c r="A913" t="s">
-        <v>1025</v>
+        <v>1038</v>
       </c>
       <c r="B913" t="s">
         <v>5</v>
@@ -13722,18 +13899,18 @@
     </row>
     <row r="914" spans="1:4">
       <c r="A914" t="s">
-        <v>1026</v>
+        <v>1039</v>
       </c>
       <c r="B914" t="s">
         <v>5</v>
       </c>
       <c r="C914" t="s">
-        <v>1027</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="915" spans="1:4">
       <c r="A915" t="s">
-        <v>1028</v>
+        <v>1041</v>
       </c>
       <c r="B915" t="s">
         <v>5</v>
@@ -13744,7 +13921,7 @@
     </row>
     <row r="916" spans="1:4">
       <c r="A916" t="s">
-        <v>1029</v>
+        <v>1042</v>
       </c>
       <c r="B916" t="s">
         <v>5</v>
@@ -13755,18 +13932,18 @@
     </row>
     <row r="917" spans="1:4">
       <c r="A917" t="s">
-        <v>1030</v>
+        <v>1043</v>
       </c>
       <c r="B917" t="s">
         <v>5</v>
       </c>
       <c r="C917" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="918" spans="1:4">
       <c r="A918" t="s">
-        <v>1032</v>
+        <v>1045</v>
       </c>
       <c r="B918" t="s">
         <v>5</v>
@@ -13777,7 +13954,7 @@
     </row>
     <row r="919" spans="1:4">
       <c r="A919" t="s">
-        <v>1033</v>
+        <v>1046</v>
       </c>
       <c r="B919" t="s">
         <v>5</v>
@@ -13788,7 +13965,7 @@
     </row>
     <row r="920" spans="1:4">
       <c r="A920" t="s">
-        <v>1034</v>
+        <v>1047</v>
       </c>
       <c r="B920" t="s">
         <v>5</v>
@@ -13799,7 +13976,7 @@
     </row>
     <row r="921" spans="1:4">
       <c r="A921" t="s">
-        <v>1035</v>
+        <v>1048</v>
       </c>
       <c r="B921" t="s">
         <v>5</v>
@@ -13810,7 +13987,7 @@
     </row>
     <row r="922" spans="1:4">
       <c r="A922" t="s">
-        <v>1036</v>
+        <v>1049</v>
       </c>
       <c r="B922" t="s">
         <v>35</v>
@@ -13818,7 +13995,7 @@
     </row>
     <row r="923" spans="1:4">
       <c r="A923" t="s">
-        <v>1037</v>
+        <v>1050</v>
       </c>
       <c r="B923" t="s">
         <v>35</v>
@@ -13826,7 +14003,7 @@
     </row>
     <row r="924" spans="1:4">
       <c r="A924" t="s">
-        <v>1038</v>
+        <v>1051</v>
       </c>
       <c r="B924" t="s">
         <v>35</v>
@@ -13834,7 +14011,7 @@
     </row>
     <row r="925" spans="1:4">
       <c r="A925" t="s">
-        <v>1039</v>
+        <v>1052</v>
       </c>
       <c r="B925" t="s">
         <v>35</v>
@@ -13842,7 +14019,7 @@
     </row>
     <row r="926" spans="1:4">
       <c r="A926" t="s">
-        <v>1040</v>
+        <v>1053</v>
       </c>
       <c r="B926" t="s">
         <v>35</v>
@@ -13850,7 +14027,7 @@
     </row>
     <row r="927" spans="1:4">
       <c r="A927" t="s">
-        <v>1041</v>
+        <v>1054</v>
       </c>
       <c r="B927" t="s">
         <v>35</v>
@@ -13858,7 +14035,7 @@
     </row>
     <row r="928" spans="1:4">
       <c r="A928" t="s">
-        <v>1042</v>
+        <v>1055</v>
       </c>
       <c r="B928" t="s">
         <v>35</v>
@@ -13866,7 +14043,7 @@
     </row>
     <row r="929" spans="1:4">
       <c r="A929" t="s">
-        <v>1043</v>
+        <v>1056</v>
       </c>
       <c r="B929" t="s">
         <v>5</v>
@@ -13877,40 +14054,40 @@
     </row>
     <row r="930" spans="1:4">
       <c r="A930" t="s">
-        <v>1044</v>
+        <v>1057</v>
       </c>
       <c r="B930" t="s">
         <v>5</v>
       </c>
       <c r="C930" t="s">
-        <v>1045</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="931" spans="1:4">
       <c r="A931" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
       <c r="B931" t="s">
         <v>5</v>
       </c>
       <c r="C931" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="932" spans="1:4">
       <c r="A932" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
       <c r="B932" t="s">
         <v>5</v>
       </c>
       <c r="C932" t="s">
-        <v>1049</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="933" spans="1:4">
       <c r="A933" t="s">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="B933" t="s">
         <v>5</v>
@@ -13921,18 +14098,18 @@
     </row>
     <row r="934" spans="1:4">
       <c r="A934" t="s">
-        <v>1051</v>
+        <v>1064</v>
       </c>
       <c r="B934" t="s">
         <v>5</v>
       </c>
       <c r="C934" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="935" spans="1:4">
       <c r="A935" t="s">
-        <v>1053</v>
+        <v>1066</v>
       </c>
       <c r="B935" t="s">
         <v>5</v>
@@ -13943,29 +14120,29 @@
     </row>
     <row r="936" spans="1:4">
       <c r="A936" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
       <c r="B936" t="s">
         <v>5</v>
       </c>
       <c r="C936" t="s">
-        <v>1055</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="937" spans="1:4">
       <c r="A937" t="s">
-        <v>1056</v>
+        <v>1069</v>
       </c>
       <c r="B937" t="s">
         <v>5</v>
       </c>
       <c r="C937" t="s">
-        <v>1057</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="938" spans="1:4">
       <c r="A938" t="s">
-        <v>1058</v>
+        <v>1071</v>
       </c>
       <c r="B938" t="s">
         <v>5</v>
@@ -13976,95 +14153,95 @@
     </row>
     <row r="939" spans="1:4">
       <c r="A939" t="s">
-        <v>1059</v>
+        <v>1072</v>
       </c>
       <c r="B939" t="s">
         <v>5</v>
       </c>
       <c r="C939" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="940" spans="1:4">
       <c r="A940" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
       <c r="B940" t="s">
         <v>5</v>
       </c>
       <c r="C940" t="s">
-        <v>1062</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="941" spans="1:4">
       <c r="A941" t="s">
-        <v>1063</v>
+        <v>1076</v>
       </c>
       <c r="B941" t="s">
         <v>5</v>
       </c>
       <c r="C941" t="s">
-        <v>1064</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="942" spans="1:4">
       <c r="A942" t="s">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="B942" t="s">
         <v>5</v>
       </c>
       <c r="C942" t="s">
-        <v>1066</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="943" spans="1:4">
       <c r="A943" t="s">
-        <v>1067</v>
+        <v>1080</v>
       </c>
       <c r="B943" t="s">
         <v>5</v>
       </c>
       <c r="C943" t="s">
-        <v>1068</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="944" spans="1:4">
       <c r="A944" t="s">
-        <v>1069</v>
+        <v>1082</v>
       </c>
       <c r="B944" t="s">
         <v>5</v>
       </c>
       <c r="C944" t="s">
-        <v>1070</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="945" spans="1:4">
       <c r="A945" t="s">
-        <v>1071</v>
+        <v>1084</v>
       </c>
       <c r="B945" t="s">
         <v>5</v>
       </c>
       <c r="C945" t="s">
-        <v>1072</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="946" spans="1:4">
       <c r="A946" t="s">
-        <v>1073</v>
+        <v>1086</v>
       </c>
       <c r="B946" t="s">
         <v>5</v>
       </c>
       <c r="C946" t="s">
-        <v>1074</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="947" spans="1:4">
       <c r="A947" t="s">
-        <v>1075</v>
+        <v>1088</v>
       </c>
       <c r="B947" t="s">
         <v>5</v>
@@ -14075,7 +14252,7 @@
     </row>
     <row r="948" spans="1:4">
       <c r="A948" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
       <c r="B948" t="s">
         <v>5</v>
@@ -14086,40 +14263,40 @@
     </row>
     <row r="949" spans="1:4">
       <c r="A949" t="s">
-        <v>1077</v>
+        <v>1090</v>
       </c>
       <c r="B949" t="s">
         <v>5</v>
       </c>
       <c r="C949" t="s">
-        <v>1078</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="950" spans="1:4">
       <c r="A950" t="s">
-        <v>1079</v>
+        <v>1092</v>
       </c>
       <c r="B950" t="s">
         <v>5</v>
       </c>
       <c r="C950" t="s">
-        <v>1080</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="951" spans="1:4">
       <c r="A951" t="s">
-        <v>1081</v>
+        <v>1094</v>
       </c>
       <c r="B951" t="s">
         <v>5</v>
       </c>
       <c r="C951" t="s">
-        <v>1082</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="952" spans="1:4">
       <c r="A952" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="B952" t="s">
         <v>5</v>
@@ -14130,29 +14307,29 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" t="s">
-        <v>1084</v>
+        <v>1097</v>
       </c>
       <c r="B953" t="s">
         <v>5</v>
       </c>
       <c r="C953" t="s">
-        <v>1085</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="954" spans="1:4">
       <c r="A954" t="s">
-        <v>1086</v>
+        <v>1099</v>
       </c>
       <c r="B954" t="s">
         <v>5</v>
       </c>
       <c r="C954" t="s">
-        <v>1087</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="955" spans="1:4">
       <c r="A955" t="s">
-        <v>1088</v>
+        <v>1101</v>
       </c>
       <c r="B955" t="s">
         <v>5</v>
@@ -14163,7 +14340,7 @@
     </row>
     <row r="956" spans="1:4">
       <c r="A956" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="B956" t="s">
         <v>5</v>
@@ -14174,7 +14351,7 @@
     </row>
     <row r="957" spans="1:4">
       <c r="A957" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="B957" t="s">
         <v>5</v>
@@ -14185,7 +14362,7 @@
     </row>
     <row r="958" spans="1:4">
       <c r="A958" t="s">
-        <v>1091</v>
+        <v>1104</v>
       </c>
       <c r="B958" t="s">
         <v>5</v>
@@ -14196,7 +14373,7 @@
     </row>
     <row r="959" spans="1:4">
       <c r="A959" t="s">
-        <v>1092</v>
+        <v>1105</v>
       </c>
       <c r="B959" t="s">
         <v>5</v>
@@ -14218,7 +14395,7 @@
     </row>
     <row r="961" spans="1:4">
       <c r="A961" t="s">
-        <v>1093</v>
+        <v>1106</v>
       </c>
       <c r="B961" t="s">
         <v>5</v>
@@ -14229,7 +14406,7 @@
     </row>
     <row r="962" spans="1:4">
       <c r="A962" t="s">
-        <v>1094</v>
+        <v>1107</v>
       </c>
       <c r="B962" t="s">
         <v>5</v>
@@ -14240,7 +14417,7 @@
     </row>
     <row r="963" spans="1:4">
       <c r="A963" t="s">
-        <v>1095</v>
+        <v>1108</v>
       </c>
       <c r="B963" t="s">
         <v>5</v>
@@ -14251,7 +14428,7 @@
     </row>
     <row r="964" spans="1:4">
       <c r="A964" t="s">
-        <v>1096</v>
+        <v>1109</v>
       </c>
       <c r="B964" t="s">
         <v>5</v>
@@ -14262,7 +14439,7 @@
     </row>
     <row r="965" spans="1:4">
       <c r="A965" t="s">
-        <v>1097</v>
+        <v>1110</v>
       </c>
       <c r="B965" t="s">
         <v>35</v>
@@ -14270,7 +14447,7 @@
     </row>
     <row r="966" spans="1:4">
       <c r="A966" t="s">
-        <v>1098</v>
+        <v>1111</v>
       </c>
       <c r="B966" t="s">
         <v>35</v>
@@ -14278,7 +14455,7 @@
     </row>
     <row r="967" spans="1:4">
       <c r="A967" t="s">
-        <v>1099</v>
+        <v>1112</v>
       </c>
       <c r="B967" t="s">
         <v>35</v>
@@ -14286,7 +14463,7 @@
     </row>
     <row r="968" spans="1:4">
       <c r="A968" t="s">
-        <v>1100</v>
+        <v>1113</v>
       </c>
       <c r="B968" t="s">
         <v>35</v>
@@ -14294,7 +14471,7 @@
     </row>
     <row r="969" spans="1:4">
       <c r="A969" t="s">
-        <v>1101</v>
+        <v>1114</v>
       </c>
       <c r="B969" t="s">
         <v>35</v>
@@ -14302,7 +14479,7 @@
     </row>
     <row r="970" spans="1:4">
       <c r="A970" t="s">
-        <v>1102</v>
+        <v>1115</v>
       </c>
       <c r="B970" t="s">
         <v>35</v>
@@ -14310,7 +14487,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" t="s">
-        <v>1103</v>
+        <v>1116</v>
       </c>
       <c r="B971" t="s">
         <v>35</v>
@@ -14318,7 +14495,7 @@
     </row>
     <row r="972" spans="1:4">
       <c r="A972" t="s">
-        <v>1104</v>
+        <v>1117</v>
       </c>
       <c r="B972" t="s">
         <v>5</v>
@@ -14329,7 +14506,7 @@
     </row>
     <row r="973" spans="1:4">
       <c r="A973" t="s">
-        <v>1105</v>
+        <v>1118</v>
       </c>
       <c r="B973" t="s">
         <v>35</v>
@@ -14337,7 +14514,7 @@
     </row>
     <row r="974" spans="1:4">
       <c r="A974" t="s">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="B974" t="s">
         <v>35</v>
@@ -14345,7 +14522,7 @@
     </row>
     <row r="975" spans="1:4">
       <c r="A975" t="s">
-        <v>1107</v>
+        <v>1120</v>
       </c>
       <c r="B975" t="s">
         <v>35</v>
@@ -14353,7 +14530,7 @@
     </row>
     <row r="976" spans="1:4">
       <c r="A976" t="s">
-        <v>1108</v>
+        <v>1121</v>
       </c>
       <c r="B976" t="s">
         <v>35</v>
@@ -14361,7 +14538,7 @@
     </row>
     <row r="977" spans="1:4">
       <c r="A977" t="s">
-        <v>1109</v>
+        <v>1122</v>
       </c>
       <c r="B977" t="s">
         <v>35</v>
@@ -14369,7 +14546,7 @@
     </row>
     <row r="978" spans="1:4">
       <c r="A978" t="s">
-        <v>1110</v>
+        <v>1123</v>
       </c>
       <c r="B978" t="s">
         <v>35</v>
@@ -14377,7 +14554,7 @@
     </row>
     <row r="979" spans="1:4">
       <c r="A979" t="s">
-        <v>1111</v>
+        <v>1124</v>
       </c>
       <c r="B979" t="s">
         <v>35</v>
@@ -14385,7 +14562,7 @@
     </row>
     <row r="980" spans="1:4">
       <c r="A980" t="s">
-        <v>1112</v>
+        <v>1125</v>
       </c>
       <c r="B980" t="s">
         <v>35</v>
@@ -14393,7 +14570,7 @@
     </row>
     <row r="981" spans="1:4">
       <c r="A981" t="s">
-        <v>1113</v>
+        <v>1126</v>
       </c>
       <c r="B981" t="s">
         <v>35</v>
@@ -14401,7 +14578,7 @@
     </row>
     <row r="982" spans="1:4">
       <c r="A982" t="s">
-        <v>1114</v>
+        <v>1127</v>
       </c>
       <c r="B982" t="s">
         <v>35</v>
@@ -14409,7 +14586,7 @@
     </row>
     <row r="983" spans="1:4">
       <c r="A983" t="s">
-        <v>1115</v>
+        <v>1128</v>
       </c>
       <c r="B983" t="s">
         <v>35</v>
@@ -14417,7 +14594,7 @@
     </row>
     <row r="984" spans="1:4">
       <c r="A984" t="s">
-        <v>1116</v>
+        <v>1129</v>
       </c>
       <c r="B984" t="s">
         <v>35</v>
@@ -14425,7 +14602,7 @@
     </row>
     <row r="985" spans="1:4">
       <c r="A985" t="s">
-        <v>1117</v>
+        <v>1130</v>
       </c>
       <c r="B985" t="s">
         <v>35</v>
@@ -14433,7 +14610,7 @@
     </row>
     <row r="986" spans="1:4">
       <c r="A986" t="s">
-        <v>1118</v>
+        <v>1131</v>
       </c>
       <c r="B986" t="s">
         <v>35</v>
@@ -14441,7 +14618,7 @@
     </row>
     <row r="987" spans="1:4">
       <c r="A987" t="s">
-        <v>1119</v>
+        <v>1132</v>
       </c>
       <c r="B987" t="s">
         <v>35</v>
@@ -14449,7 +14626,7 @@
     </row>
     <row r="988" spans="1:4">
       <c r="A988" t="s">
-        <v>1120</v>
+        <v>1133</v>
       </c>
       <c r="B988" t="s">
         <v>35</v>
@@ -14457,7 +14634,7 @@
     </row>
     <row r="989" spans="1:4">
       <c r="A989" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
       <c r="B989" t="s">
         <v>35</v>
@@ -14465,7 +14642,7 @@
     </row>
     <row r="990" spans="1:4">
       <c r="A990" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
       <c r="B990" t="s">
         <v>35</v>
@@ -14473,7 +14650,7 @@
     </row>
     <row r="991" spans="1:4">
       <c r="A991" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
       <c r="B991" t="s">
         <v>35</v>
@@ -14481,7 +14658,7 @@
     </row>
     <row r="992" spans="1:4">
       <c r="A992" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
       <c r="B992" t="s">
         <v>35</v>
@@ -14489,7 +14666,7 @@
     </row>
     <row r="993" spans="1:4">
       <c r="A993" t="s">
-        <v>1125</v>
+        <v>1138</v>
       </c>
       <c r="B993" t="s">
         <v>35</v>
@@ -14497,7 +14674,7 @@
     </row>
     <row r="994" spans="1:4">
       <c r="A994" t="s">
-        <v>1126</v>
+        <v>1139</v>
       </c>
       <c r="B994" t="s">
         <v>35</v>
@@ -14505,7 +14682,7 @@
     </row>
     <row r="995" spans="1:4">
       <c r="A995" t="s">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="B995" t="s">
         <v>35</v>
@@ -14513,7 +14690,7 @@
     </row>
     <row r="996" spans="1:4">
       <c r="A996" t="s">
-        <v>1128</v>
+        <v>1141</v>
       </c>
       <c r="B996" t="s">
         <v>35</v>
@@ -14521,7 +14698,7 @@
     </row>
     <row r="997" spans="1:4">
       <c r="A997" t="s">
-        <v>1129</v>
+        <v>1142</v>
       </c>
       <c r="B997" t="s">
         <v>5</v>
@@ -14532,7 +14709,7 @@
     </row>
     <row r="998" spans="1:4">
       <c r="A998" t="s">
-        <v>1130</v>
+        <v>1143</v>
       </c>
       <c r="B998" t="s">
         <v>5</v>
@@ -14543,29 +14720,29 @@
     </row>
     <row r="999" spans="1:4">
       <c r="A999" t="s">
-        <v>1131</v>
+        <v>1144</v>
       </c>
       <c r="B999" t="s">
         <v>5</v>
       </c>
       <c r="C999" t="s">
-        <v>1132</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="1000" spans="1:4">
       <c r="A1000" t="s">
-        <v>1133</v>
+        <v>1146</v>
       </c>
       <c r="B1000" t="s">
         <v>5</v>
       </c>
       <c r="C1000" t="s">
-        <v>1134</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1001" spans="1:4">
       <c r="A1001" t="s">
-        <v>1135</v>
+        <v>1148</v>
       </c>
       <c r="B1001" t="s">
         <v>35</v>
@@ -14573,7 +14750,7 @@
     </row>
     <row r="1002" spans="1:4">
       <c r="A1002" t="s">
-        <v>1136</v>
+        <v>1149</v>
       </c>
       <c r="B1002" t="s">
         <v>35</v>
@@ -14581,7 +14758,7 @@
     </row>
     <row r="1003" spans="1:4">
       <c r="A1003" t="s">
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="B1003" t="s">
         <v>35</v>
@@ -14589,7 +14766,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" t="s">
-        <v>1138</v>
+        <v>1151</v>
       </c>
       <c r="B1004" t="s">
         <v>35</v>
@@ -14597,7 +14774,7 @@
     </row>
     <row r="1005" spans="1:4">
       <c r="A1005" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
       <c r="B1005" t="s">
         <v>35</v>
@@ -14605,7 +14782,7 @@
     </row>
     <row r="1006" spans="1:4">
       <c r="A1006" t="s">
-        <v>1140</v>
+        <v>1153</v>
       </c>
       <c r="B1006" t="s">
         <v>35</v>
@@ -14613,7 +14790,7 @@
     </row>
     <row r="1007" spans="1:4">
       <c r="A1007" t="s">
-        <v>1141</v>
+        <v>1154</v>
       </c>
       <c r="B1007" t="s">
         <v>35</v>
@@ -14621,7 +14798,7 @@
     </row>
     <row r="1008" spans="1:4">
       <c r="A1008" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="B1008" t="s">
         <v>35</v>
@@ -14629,7 +14806,7 @@
     </row>
     <row r="1009" spans="1:4">
       <c r="A1009" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
       <c r="B1009" t="s">
         <v>35</v>
@@ -14637,7 +14814,7 @@
     </row>
     <row r="1010" spans="1:4">
       <c r="A1010" t="s">
-        <v>1144</v>
+        <v>1157</v>
       </c>
       <c r="B1010" t="s">
         <v>35</v>
@@ -14645,7 +14822,7 @@
     </row>
     <row r="1011" spans="1:4">
       <c r="A1011" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="B1011" t="s">
         <v>35</v>
@@ -14653,7 +14830,7 @@
     </row>
     <row r="1012" spans="1:4">
       <c r="A1012" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
       <c r="B1012" t="s">
         <v>35</v>
@@ -14661,7 +14838,7 @@
     </row>
     <row r="1013" spans="1:4">
       <c r="A1013" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
       <c r="B1013" t="s">
         <v>35</v>
@@ -14669,7 +14846,7 @@
     </row>
     <row r="1014" spans="1:4">
       <c r="A1014" t="s">
-        <v>1148</v>
+        <v>1161</v>
       </c>
       <c r="B1014" t="s">
         <v>5</v>
@@ -14680,7 +14857,7 @@
     </row>
     <row r="1015" spans="1:4">
       <c r="A1015" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
       <c r="B1015" t="s">
         <v>35</v>
@@ -14688,7 +14865,7 @@
     </row>
     <row r="1016" spans="1:4">
       <c r="A1016" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
       <c r="B1016" t="s">
         <v>5</v>
@@ -14699,7 +14876,7 @@
     </row>
     <row r="1017" spans="1:4">
       <c r="A1017" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="B1017" t="s">
         <v>5</v>
@@ -14710,7 +14887,7 @@
     </row>
     <row r="1018" spans="1:4">
       <c r="A1018" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
       <c r="B1018" t="s">
         <v>5</v>
@@ -14721,7 +14898,7 @@
     </row>
     <row r="1019" spans="1:4">
       <c r="A1019" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
       <c r="B1019" t="s">
         <v>35</v>
@@ -14729,7 +14906,7 @@
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
       <c r="B1020" t="s">
         <v>35</v>
@@ -14737,7 +14914,7 @@
     </row>
     <row r="1021" spans="1:4">
       <c r="A1021" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
       <c r="B1021" t="s">
         <v>5</v>
@@ -14748,7 +14925,7 @@
     </row>
     <row r="1022" spans="1:4">
       <c r="A1022" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="B1022" t="s">
         <v>35</v>
@@ -14756,7 +14933,7 @@
     </row>
     <row r="1023" spans="1:4">
       <c r="A1023" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
       <c r="B1023" t="s">
         <v>35</v>
@@ -14764,7 +14941,7 @@
     </row>
     <row r="1024" spans="1:4">
       <c r="A1024" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
       <c r="B1024" t="s">
         <v>35</v>
@@ -14772,7 +14949,7 @@
     </row>
     <row r="1025" spans="1:4">
       <c r="A1025" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
       <c r="B1025" t="s">
         <v>35</v>
@@ -14780,7 +14957,7 @@
     </row>
     <row r="1026" spans="1:4">
       <c r="A1026" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
       <c r="B1026" t="s">
         <v>35</v>
@@ -14788,7 +14965,7 @@
     </row>
     <row r="1027" spans="1:4">
       <c r="A1027" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
       <c r="B1027" t="s">
         <v>35</v>
@@ -14796,7 +14973,7 @@
     </row>
     <row r="1028" spans="1:4">
       <c r="A1028" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
       <c r="B1028" t="s">
         <v>35</v>
@@ -14804,7 +14981,7 @@
     </row>
     <row r="1029" spans="1:4">
       <c r="A1029" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
       <c r="B1029" t="s">
         <v>35</v>
@@ -14812,7 +14989,7 @@
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
       <c r="B1030" t="s">
         <v>35</v>
@@ -14820,7 +14997,7 @@
     </row>
     <row r="1031" spans="1:4">
       <c r="A1031" t="s">
-        <v>1165</v>
+        <v>1178</v>
       </c>
       <c r="B1031" t="s">
         <v>35</v>
@@ -14828,7 +15005,7 @@
     </row>
     <row r="1032" spans="1:4">
       <c r="A1032" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="B1032" t="s">
         <v>35</v>
@@ -14836,7 +15013,7 @@
     </row>
     <row r="1033" spans="1:4">
       <c r="A1033" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
       <c r="B1033" t="s">
         <v>35</v>
@@ -14844,7 +15021,7 @@
     </row>
     <row r="1034" spans="1:4">
       <c r="A1034" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
       <c r="B1034" t="s">
         <v>35</v>
@@ -14852,7 +15029,7 @@
     </row>
     <row r="1035" spans="1:4">
       <c r="A1035" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
       <c r="B1035" t="s">
         <v>35</v>
@@ -14860,7 +15037,7 @@
     </row>
     <row r="1036" spans="1:4">
       <c r="A1036" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
       <c r="B1036" t="s">
         <v>35</v>
@@ -14868,7 +15045,7 @@
     </row>
     <row r="1037" spans="1:4">
       <c r="A1037" t="s">
-        <v>1171</v>
+        <v>1184</v>
       </c>
       <c r="B1037" t="s">
         <v>35</v>
@@ -14876,7 +15053,7 @@
     </row>
     <row r="1038" spans="1:4">
       <c r="A1038" t="s">
-        <v>1172</v>
+        <v>1185</v>
       </c>
       <c r="B1038" t="s">
         <v>35</v>
@@ -14884,7 +15061,7 @@
     </row>
     <row r="1039" spans="1:4">
       <c r="A1039" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
       <c r="B1039" t="s">
         <v>35</v>
@@ -14892,7 +15069,7 @@
     </row>
     <row r="1040" spans="1:4">
       <c r="A1040" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
       <c r="B1040" t="s">
         <v>5</v>
@@ -14903,7 +15080,7 @@
     </row>
     <row r="1041" spans="1:4">
       <c r="A1041" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
       <c r="B1041" t="s">
         <v>35</v>
@@ -14911,7 +15088,7 @@
     </row>
     <row r="1042" spans="1:4">
       <c r="A1042" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
       <c r="B1042" t="s">
         <v>35</v>
@@ -14919,7 +15096,7 @@
     </row>
     <row r="1043" spans="1:4">
       <c r="A1043" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
       <c r="B1043" t="s">
         <v>35</v>
@@ -14927,7 +15104,7 @@
     </row>
     <row r="1044" spans="1:4">
       <c r="A1044" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
       <c r="B1044" t="s">
         <v>35</v>
